--- a/server/db/excel/sqlite-inovation-manager-ver-dinh.xlsx
+++ b/server/db/excel/sqlite-inovation-manager-ver-dinh.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\dinh-inovation\server\db\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0715EFE-65C3-4E41-8D96-7517CCDF2A84}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -29,10 +23,10 @@
     <sheet name="ideas_questions" sheetId="22" r:id="rId14"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$E$51</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$E$52</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">users!$A$1:$N$1</definedName>
   </definedNames>
-  <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -51,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="362">
   <si>
     <t>table_name</t>
   </si>
@@ -1109,12 +1103,6 @@
     <t>dinh99</t>
   </si>
   <si>
-    <t>392 Nguyễn Văn Linh, Đà nẵng</t>
-  </si>
-  <si>
-    <t>393 Nguyễn Văn Linh, Đà nẵng</t>
-  </si>
-  <si>
     <t>0766777123</t>
   </si>
   <si>
@@ -1134,12 +1122,24 @@
   </si>
   <si>
     <t>user nào, (nhớ tạo PRIMARY KEY sau khi tạo đc csdl)</t>
+  </si>
+  <si>
+    <t>391 Nguyễn Văn Linh, Đà nẵng</t>
+  </si>
+  <si>
+    <t>is_default</t>
+  </si>
+  <si>
+    <t>Trường này có mặc định không?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0;[Red]0"/>
+  </numFmts>
   <fonts count="24">
     <font>
       <sz val="11"/>
@@ -1675,7 +1675,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="84">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1846,6 +1846,14 @@
     <xf numFmtId="0" fontId="12" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="16" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="184">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2435,11 +2443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AMI72"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AMI74"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -4238,1065 +4246,47 @@
       <c r="A51" s="43" t="s">
         <v>262</v>
       </c>
-      <c r="B51" s="37" t="s">
-        <v>5</v>
-      </c>
-      <c r="C51" s="46" t="s">
-        <v>277</v>
+      <c r="B51" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C51" s="83" t="s">
+        <v>361</v>
       </c>
       <c r="D51" s="67" t="s">
         <v>272</v>
       </c>
+      <c r="E51" s="1"/>
     </row>
     <row r="52" spans="1:1023">
-      <c r="A52" s="79" t="s">
-        <v>355</v>
-      </c>
-      <c r="B52" s="31" t="s">
-        <v>6</v>
+      <c r="A52" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="B52" s="37" t="s">
+        <v>5</v>
       </c>
       <c r="C52" s="46" t="s">
-        <v>356</v>
+        <v>277</v>
       </c>
       <c r="D52" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="E52" s="11" t="s">
-        <v>273</v>
-      </c>
-      <c r="F52"/>
-      <c r="G52"/>
-      <c r="H52"/>
-      <c r="I52"/>
-      <c r="J52"/>
-      <c r="K52"/>
-      <c r="L52"/>
-      <c r="M52"/>
-      <c r="N52"/>
-      <c r="O52"/>
-      <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52"/>
-      <c r="S52"/>
-      <c r="T52"/>
-      <c r="U52"/>
-      <c r="V52"/>
-      <c r="W52"/>
-      <c r="X52"/>
-      <c r="Y52"/>
-      <c r="Z52"/>
-      <c r="AA52"/>
-      <c r="AB52"/>
-      <c r="AC52"/>
-      <c r="AD52"/>
-      <c r="AE52"/>
-      <c r="AF52"/>
-      <c r="AG52"/>
-      <c r="AH52"/>
-      <c r="AI52"/>
-      <c r="AJ52"/>
-      <c r="AK52"/>
-      <c r="AL52"/>
-      <c r="AM52"/>
-      <c r="AN52"/>
-      <c r="AO52"/>
-      <c r="AP52"/>
-      <c r="AQ52"/>
-      <c r="AR52"/>
-      <c r="AS52"/>
-      <c r="AT52"/>
-      <c r="AU52"/>
-      <c r="AV52"/>
-      <c r="AW52"/>
-      <c r="AX52"/>
-      <c r="AY52"/>
-      <c r="AZ52"/>
-      <c r="BA52"/>
-      <c r="BB52"/>
-      <c r="BC52"/>
-      <c r="BD52"/>
-      <c r="BE52"/>
-      <c r="BF52"/>
-      <c r="BG52"/>
-      <c r="BH52"/>
-      <c r="BI52"/>
-      <c r="BJ52"/>
-      <c r="BK52"/>
-      <c r="BL52"/>
-      <c r="BM52"/>
-      <c r="BN52"/>
-      <c r="BO52"/>
-      <c r="BP52"/>
-      <c r="BQ52"/>
-      <c r="BR52"/>
-      <c r="BS52"/>
-      <c r="BT52"/>
-      <c r="BU52"/>
-      <c r="BV52"/>
-      <c r="BW52"/>
-      <c r="BX52"/>
-      <c r="BY52"/>
-      <c r="BZ52"/>
-      <c r="CA52"/>
-      <c r="CB52"/>
-      <c r="CC52"/>
-      <c r="CD52"/>
-      <c r="CE52"/>
-      <c r="CF52"/>
-      <c r="CG52"/>
-      <c r="CH52"/>
-      <c r="CI52"/>
-      <c r="CJ52"/>
-      <c r="CK52"/>
-      <c r="CL52"/>
-      <c r="CM52"/>
-      <c r="CN52"/>
-      <c r="CO52"/>
-      <c r="CP52"/>
-      <c r="CQ52"/>
-      <c r="CR52"/>
-      <c r="CS52"/>
-      <c r="CT52"/>
-      <c r="CU52"/>
-      <c r="CV52"/>
-      <c r="CW52"/>
-      <c r="CX52"/>
-      <c r="CY52"/>
-      <c r="CZ52"/>
-      <c r="DA52"/>
-      <c r="DB52"/>
-      <c r="DC52"/>
-      <c r="DD52"/>
-      <c r="DE52"/>
-      <c r="DF52"/>
-      <c r="DG52"/>
-      <c r="DH52"/>
-      <c r="DI52"/>
-      <c r="DJ52"/>
-      <c r="DK52"/>
-      <c r="DL52"/>
-      <c r="DM52"/>
-      <c r="DN52"/>
-      <c r="DO52"/>
-      <c r="DP52"/>
-      <c r="DQ52"/>
-      <c r="DR52"/>
-      <c r="DS52"/>
-      <c r="DT52"/>
-      <c r="DU52"/>
-      <c r="DV52"/>
-      <c r="DW52"/>
-      <c r="DX52"/>
-      <c r="DY52"/>
-      <c r="DZ52"/>
-      <c r="EA52"/>
-      <c r="EB52"/>
-      <c r="EC52"/>
-      <c r="ED52"/>
-      <c r="EE52"/>
-      <c r="EF52"/>
-      <c r="EG52"/>
-      <c r="EH52"/>
-      <c r="EI52"/>
-      <c r="EJ52"/>
-      <c r="EK52"/>
-      <c r="EL52"/>
-      <c r="EM52"/>
-      <c r="EN52"/>
-      <c r="EO52"/>
-      <c r="EP52"/>
-      <c r="EQ52"/>
-      <c r="ER52"/>
-      <c r="ES52"/>
-      <c r="ET52"/>
-      <c r="EU52"/>
-      <c r="EV52"/>
-      <c r="EW52"/>
-      <c r="EX52"/>
-      <c r="EY52"/>
-      <c r="EZ52"/>
-      <c r="FA52"/>
-      <c r="FB52"/>
-      <c r="FC52"/>
-      <c r="FD52"/>
-      <c r="FE52"/>
-      <c r="FF52"/>
-      <c r="FG52"/>
-      <c r="FH52"/>
-      <c r="FI52"/>
-      <c r="FJ52"/>
-      <c r="FK52"/>
-      <c r="FL52"/>
-      <c r="FM52"/>
-      <c r="FN52"/>
-      <c r="FO52"/>
-      <c r="FP52"/>
-      <c r="FQ52"/>
-      <c r="FR52"/>
-      <c r="FS52"/>
-      <c r="FT52"/>
-      <c r="FU52"/>
-      <c r="FV52"/>
-      <c r="FW52"/>
-      <c r="FX52"/>
-      <c r="FY52"/>
-      <c r="FZ52"/>
-      <c r="GA52"/>
-      <c r="GB52"/>
-      <c r="GC52"/>
-      <c r="GD52"/>
-      <c r="GE52"/>
-      <c r="GF52"/>
-      <c r="GG52"/>
-      <c r="GH52"/>
-      <c r="GI52"/>
-      <c r="GJ52"/>
-      <c r="GK52"/>
-      <c r="GL52"/>
-      <c r="GM52"/>
-      <c r="GN52"/>
-      <c r="GO52"/>
-      <c r="GP52"/>
-      <c r="GQ52"/>
-      <c r="GR52"/>
-      <c r="GS52"/>
-      <c r="GT52"/>
-      <c r="GU52"/>
-      <c r="GV52"/>
-      <c r="GW52"/>
-      <c r="GX52"/>
-      <c r="GY52"/>
-      <c r="GZ52"/>
-      <c r="HA52"/>
-      <c r="HB52"/>
-      <c r="HC52"/>
-      <c r="HD52"/>
-      <c r="HE52"/>
-      <c r="HF52"/>
-      <c r="HG52"/>
-      <c r="HH52"/>
-      <c r="HI52"/>
-      <c r="HJ52"/>
-      <c r="HK52"/>
-      <c r="HL52"/>
-      <c r="HM52"/>
-      <c r="HN52"/>
-      <c r="HO52"/>
-      <c r="HP52"/>
-      <c r="HQ52"/>
-      <c r="HR52"/>
-      <c r="HS52"/>
-      <c r="HT52"/>
-      <c r="HU52"/>
-      <c r="HV52"/>
-      <c r="HW52"/>
-      <c r="HX52"/>
-      <c r="HY52"/>
-      <c r="HZ52"/>
-      <c r="IA52"/>
-      <c r="IB52"/>
-      <c r="IC52"/>
-      <c r="ID52"/>
-      <c r="IE52"/>
-      <c r="IF52"/>
-      <c r="IG52"/>
-      <c r="IH52"/>
-      <c r="II52"/>
-      <c r="IJ52"/>
-      <c r="IK52"/>
-      <c r="IL52"/>
-      <c r="IM52"/>
-      <c r="IN52"/>
-      <c r="IO52"/>
-      <c r="IP52"/>
-      <c r="IQ52"/>
-      <c r="IR52"/>
-      <c r="IS52"/>
-      <c r="IT52"/>
-      <c r="IU52"/>
-      <c r="IV52"/>
-      <c r="IW52"/>
-      <c r="IX52"/>
-      <c r="IY52"/>
-      <c r="IZ52"/>
-      <c r="JA52"/>
-      <c r="JB52"/>
-      <c r="JC52"/>
-      <c r="JD52"/>
-      <c r="JE52"/>
-      <c r="JF52"/>
-      <c r="JG52"/>
-      <c r="JH52"/>
-      <c r="JI52"/>
-      <c r="JJ52"/>
-      <c r="JK52"/>
-      <c r="JL52"/>
-      <c r="JM52"/>
-      <c r="JN52"/>
-      <c r="JO52"/>
-      <c r="JP52"/>
-      <c r="JQ52"/>
-      <c r="JR52"/>
-      <c r="JS52"/>
-      <c r="JT52"/>
-      <c r="JU52"/>
-      <c r="JV52"/>
-      <c r="JW52"/>
-      <c r="JX52"/>
-      <c r="JY52"/>
-      <c r="JZ52"/>
-      <c r="KA52"/>
-      <c r="KB52"/>
-      <c r="KC52"/>
-      <c r="KD52"/>
-      <c r="KE52"/>
-      <c r="KF52"/>
-      <c r="KG52"/>
-      <c r="KH52"/>
-      <c r="KI52"/>
-      <c r="KJ52"/>
-      <c r="KK52"/>
-      <c r="KL52"/>
-      <c r="KM52"/>
-      <c r="KN52"/>
-      <c r="KO52"/>
-      <c r="KP52"/>
-      <c r="KQ52"/>
-      <c r="KR52"/>
-      <c r="KS52"/>
-      <c r="KT52"/>
-      <c r="KU52"/>
-      <c r="KV52"/>
-      <c r="KW52"/>
-      <c r="KX52"/>
-      <c r="KY52"/>
-      <c r="KZ52"/>
-      <c r="LA52"/>
-      <c r="LB52"/>
-      <c r="LC52"/>
-      <c r="LD52"/>
-      <c r="LE52"/>
-      <c r="LF52"/>
-      <c r="LG52"/>
-      <c r="LH52"/>
-      <c r="LI52"/>
-      <c r="LJ52"/>
-      <c r="LK52"/>
-      <c r="LL52"/>
-      <c r="LM52"/>
-      <c r="LN52"/>
-      <c r="LO52"/>
-      <c r="LP52"/>
-      <c r="LQ52"/>
-      <c r="LR52"/>
-      <c r="LS52"/>
-      <c r="LT52"/>
-      <c r="LU52"/>
-      <c r="LV52"/>
-      <c r="LW52"/>
-      <c r="LX52"/>
-      <c r="LY52"/>
-      <c r="LZ52"/>
-      <c r="MA52"/>
-      <c r="MB52"/>
-      <c r="MC52"/>
-      <c r="MD52"/>
-      <c r="ME52"/>
-      <c r="MF52"/>
-      <c r="MG52"/>
-      <c r="MH52"/>
-      <c r="MI52"/>
-      <c r="MJ52"/>
-      <c r="MK52"/>
-      <c r="ML52"/>
-      <c r="MM52"/>
-      <c r="MN52"/>
-      <c r="MO52"/>
-      <c r="MP52"/>
-      <c r="MQ52"/>
-      <c r="MR52"/>
-      <c r="MS52"/>
-      <c r="MT52"/>
-      <c r="MU52"/>
-      <c r="MV52"/>
-      <c r="MW52"/>
-      <c r="MX52"/>
-      <c r="MY52"/>
-      <c r="MZ52"/>
-      <c r="NA52"/>
-      <c r="NB52"/>
-      <c r="NC52"/>
-      <c r="ND52"/>
-      <c r="NE52"/>
-      <c r="NF52"/>
-      <c r="NG52"/>
-      <c r="NH52"/>
-      <c r="NI52"/>
-      <c r="NJ52"/>
-      <c r="NK52"/>
-      <c r="NL52"/>
-      <c r="NM52"/>
-      <c r="NN52"/>
-      <c r="NO52"/>
-      <c r="NP52"/>
-      <c r="NQ52"/>
-      <c r="NR52"/>
-      <c r="NS52"/>
-      <c r="NT52"/>
-      <c r="NU52"/>
-      <c r="NV52"/>
-      <c r="NW52"/>
-      <c r="NX52"/>
-      <c r="NY52"/>
-      <c r="NZ52"/>
-      <c r="OA52"/>
-      <c r="OB52"/>
-      <c r="OC52"/>
-      <c r="OD52"/>
-      <c r="OE52"/>
-      <c r="OF52"/>
-      <c r="OG52"/>
-      <c r="OH52"/>
-      <c r="OI52"/>
-      <c r="OJ52"/>
-      <c r="OK52"/>
-      <c r="OL52"/>
-      <c r="OM52"/>
-      <c r="ON52"/>
-      <c r="OO52"/>
-      <c r="OP52"/>
-      <c r="OQ52"/>
-      <c r="OR52"/>
-      <c r="OS52"/>
-      <c r="OT52"/>
-      <c r="OU52"/>
-      <c r="OV52"/>
-      <c r="OW52"/>
-      <c r="OX52"/>
-      <c r="OY52"/>
-      <c r="OZ52"/>
-      <c r="PA52"/>
-      <c r="PB52"/>
-      <c r="PC52"/>
-      <c r="PD52"/>
-      <c r="PE52"/>
-      <c r="PF52"/>
-      <c r="PG52"/>
-      <c r="PH52"/>
-      <c r="PI52"/>
-      <c r="PJ52"/>
-      <c r="PK52"/>
-      <c r="PL52"/>
-      <c r="PM52"/>
-      <c r="PN52"/>
-      <c r="PO52"/>
-      <c r="PP52"/>
-      <c r="PQ52"/>
-      <c r="PR52"/>
-      <c r="PS52"/>
-      <c r="PT52"/>
-      <c r="PU52"/>
-      <c r="PV52"/>
-      <c r="PW52"/>
-      <c r="PX52"/>
-      <c r="PY52"/>
-      <c r="PZ52"/>
-      <c r="QA52"/>
-      <c r="QB52"/>
-      <c r="QC52"/>
-      <c r="QD52"/>
-      <c r="QE52"/>
-      <c r="QF52"/>
-      <c r="QG52"/>
-      <c r="QH52"/>
-      <c r="QI52"/>
-      <c r="QJ52"/>
-      <c r="QK52"/>
-      <c r="QL52"/>
-      <c r="QM52"/>
-      <c r="QN52"/>
-      <c r="QO52"/>
-      <c r="QP52"/>
-      <c r="QQ52"/>
-      <c r="QR52"/>
-      <c r="QS52"/>
-      <c r="QT52"/>
-      <c r="QU52"/>
-      <c r="QV52"/>
-      <c r="QW52"/>
-      <c r="QX52"/>
-      <c r="QY52"/>
-      <c r="QZ52"/>
-      <c r="RA52"/>
-      <c r="RB52"/>
-      <c r="RC52"/>
-      <c r="RD52"/>
-      <c r="RE52"/>
-      <c r="RF52"/>
-      <c r="RG52"/>
-      <c r="RH52"/>
-      <c r="RI52"/>
-      <c r="RJ52"/>
-      <c r="RK52"/>
-      <c r="RL52"/>
-      <c r="RM52"/>
-      <c r="RN52"/>
-      <c r="RO52"/>
-      <c r="RP52"/>
-      <c r="RQ52"/>
-      <c r="RR52"/>
-      <c r="RS52"/>
-      <c r="RT52"/>
-      <c r="RU52"/>
-      <c r="RV52"/>
-      <c r="RW52"/>
-      <c r="RX52"/>
-      <c r="RY52"/>
-      <c r="RZ52"/>
-      <c r="SA52"/>
-      <c r="SB52"/>
-      <c r="SC52"/>
-      <c r="SD52"/>
-      <c r="SE52"/>
-      <c r="SF52"/>
-      <c r="SG52"/>
-      <c r="SH52"/>
-      <c r="SI52"/>
-      <c r="SJ52"/>
-      <c r="SK52"/>
-      <c r="SL52"/>
-      <c r="SM52"/>
-      <c r="SN52"/>
-      <c r="SO52"/>
-      <c r="SP52"/>
-      <c r="SQ52"/>
-      <c r="SR52"/>
-      <c r="SS52"/>
-      <c r="ST52"/>
-      <c r="SU52"/>
-      <c r="SV52"/>
-      <c r="SW52"/>
-      <c r="SX52"/>
-      <c r="SY52"/>
-      <c r="SZ52"/>
-      <c r="TA52"/>
-      <c r="TB52"/>
-      <c r="TC52"/>
-      <c r="TD52"/>
-      <c r="TE52"/>
-      <c r="TF52"/>
-      <c r="TG52"/>
-      <c r="TH52"/>
-      <c r="TI52"/>
-      <c r="TJ52"/>
-      <c r="TK52"/>
-      <c r="TL52"/>
-      <c r="TM52"/>
-      <c r="TN52"/>
-      <c r="TO52"/>
-      <c r="TP52"/>
-      <c r="TQ52"/>
-      <c r="TR52"/>
-      <c r="TS52"/>
-      <c r="TT52"/>
-      <c r="TU52"/>
-      <c r="TV52"/>
-      <c r="TW52"/>
-      <c r="TX52"/>
-      <c r="TY52"/>
-      <c r="TZ52"/>
-      <c r="UA52"/>
-      <c r="UB52"/>
-      <c r="UC52"/>
-      <c r="UD52"/>
-      <c r="UE52"/>
-      <c r="UF52"/>
-      <c r="UG52"/>
-      <c r="UH52"/>
-      <c r="UI52"/>
-      <c r="UJ52"/>
-      <c r="UK52"/>
-      <c r="UL52"/>
-      <c r="UM52"/>
-      <c r="UN52"/>
-      <c r="UO52"/>
-      <c r="UP52"/>
-      <c r="UQ52"/>
-      <c r="UR52"/>
-      <c r="US52"/>
-      <c r="UT52"/>
-      <c r="UU52"/>
-      <c r="UV52"/>
-      <c r="UW52"/>
-      <c r="UX52"/>
-      <c r="UY52"/>
-      <c r="UZ52"/>
-      <c r="VA52"/>
-      <c r="VB52"/>
-      <c r="VC52"/>
-      <c r="VD52"/>
-      <c r="VE52"/>
-      <c r="VF52"/>
-      <c r="VG52"/>
-      <c r="VH52"/>
-      <c r="VI52"/>
-      <c r="VJ52"/>
-      <c r="VK52"/>
-      <c r="VL52"/>
-      <c r="VM52"/>
-      <c r="VN52"/>
-      <c r="VO52"/>
-      <c r="VP52"/>
-      <c r="VQ52"/>
-      <c r="VR52"/>
-      <c r="VS52"/>
-      <c r="VT52"/>
-      <c r="VU52"/>
-      <c r="VV52"/>
-      <c r="VW52"/>
-      <c r="VX52"/>
-      <c r="VY52"/>
-      <c r="VZ52"/>
-      <c r="WA52"/>
-      <c r="WB52"/>
-      <c r="WC52"/>
-      <c r="WD52"/>
-      <c r="WE52"/>
-      <c r="WF52"/>
-      <c r="WG52"/>
-      <c r="WH52"/>
-      <c r="WI52"/>
-      <c r="WJ52"/>
-      <c r="WK52"/>
-      <c r="WL52"/>
-      <c r="WM52"/>
-      <c r="WN52"/>
-      <c r="WO52"/>
-      <c r="WP52"/>
-      <c r="WQ52"/>
-      <c r="WR52"/>
-      <c r="WS52"/>
-      <c r="WT52"/>
-      <c r="WU52"/>
-      <c r="WV52"/>
-      <c r="WW52"/>
-      <c r="WX52"/>
-      <c r="WY52"/>
-      <c r="WZ52"/>
-      <c r="XA52"/>
-      <c r="XB52"/>
-      <c r="XC52"/>
-      <c r="XD52"/>
-      <c r="XE52"/>
-      <c r="XF52"/>
-      <c r="XG52"/>
-      <c r="XH52"/>
-      <c r="XI52"/>
-      <c r="XJ52"/>
-      <c r="XK52"/>
-      <c r="XL52"/>
-      <c r="XM52"/>
-      <c r="XN52"/>
-      <c r="XO52"/>
-      <c r="XP52"/>
-      <c r="XQ52"/>
-      <c r="XR52"/>
-      <c r="XS52"/>
-      <c r="XT52"/>
-      <c r="XU52"/>
-      <c r="XV52"/>
-      <c r="XW52"/>
-      <c r="XX52"/>
-      <c r="XY52"/>
-      <c r="XZ52"/>
-      <c r="YA52"/>
-      <c r="YB52"/>
-      <c r="YC52"/>
-      <c r="YD52"/>
-      <c r="YE52"/>
-      <c r="YF52"/>
-      <c r="YG52"/>
-      <c r="YH52"/>
-      <c r="YI52"/>
-      <c r="YJ52"/>
-      <c r="YK52"/>
-      <c r="YL52"/>
-      <c r="YM52"/>
-      <c r="YN52"/>
-      <c r="YO52"/>
-      <c r="YP52"/>
-      <c r="YQ52"/>
-      <c r="YR52"/>
-      <c r="YS52"/>
-      <c r="YT52"/>
-      <c r="YU52"/>
-      <c r="YV52"/>
-      <c r="YW52"/>
-      <c r="YX52"/>
-      <c r="YY52"/>
-      <c r="YZ52"/>
-      <c r="ZA52"/>
-      <c r="ZB52"/>
-      <c r="ZC52"/>
-      <c r="ZD52"/>
-      <c r="ZE52"/>
-      <c r="ZF52"/>
-      <c r="ZG52"/>
-      <c r="ZH52"/>
-      <c r="ZI52"/>
-      <c r="ZJ52"/>
-      <c r="ZK52"/>
-      <c r="ZL52"/>
-      <c r="ZM52"/>
-      <c r="ZN52"/>
-      <c r="ZO52"/>
-      <c r="ZP52"/>
-      <c r="ZQ52"/>
-      <c r="ZR52"/>
-      <c r="ZS52"/>
-      <c r="ZT52"/>
-      <c r="ZU52"/>
-      <c r="ZV52"/>
-      <c r="ZW52"/>
-      <c r="ZX52"/>
-      <c r="ZY52"/>
-      <c r="ZZ52"/>
-      <c r="AAA52"/>
-      <c r="AAB52"/>
-      <c r="AAC52"/>
-      <c r="AAD52"/>
-      <c r="AAE52"/>
-      <c r="AAF52"/>
-      <c r="AAG52"/>
-      <c r="AAH52"/>
-      <c r="AAI52"/>
-      <c r="AAJ52"/>
-      <c r="AAK52"/>
-      <c r="AAL52"/>
-      <c r="AAM52"/>
-      <c r="AAN52"/>
-      <c r="AAO52"/>
-      <c r="AAP52"/>
-      <c r="AAQ52"/>
-      <c r="AAR52"/>
-      <c r="AAS52"/>
-      <c r="AAT52"/>
-      <c r="AAU52"/>
-      <c r="AAV52"/>
-      <c r="AAW52"/>
-      <c r="AAX52"/>
-      <c r="AAY52"/>
-      <c r="AAZ52"/>
-      <c r="ABA52"/>
-      <c r="ABB52"/>
-      <c r="ABC52"/>
-      <c r="ABD52"/>
-      <c r="ABE52"/>
-      <c r="ABF52"/>
-      <c r="ABG52"/>
-      <c r="ABH52"/>
-      <c r="ABI52"/>
-      <c r="ABJ52"/>
-      <c r="ABK52"/>
-      <c r="ABL52"/>
-      <c r="ABM52"/>
-      <c r="ABN52"/>
-      <c r="ABO52"/>
-      <c r="ABP52"/>
-      <c r="ABQ52"/>
-      <c r="ABR52"/>
-      <c r="ABS52"/>
-      <c r="ABT52"/>
-      <c r="ABU52"/>
-      <c r="ABV52"/>
-      <c r="ABW52"/>
-      <c r="ABX52"/>
-      <c r="ABY52"/>
-      <c r="ABZ52"/>
-      <c r="ACA52"/>
-      <c r="ACB52"/>
-      <c r="ACC52"/>
-      <c r="ACD52"/>
-      <c r="ACE52"/>
-      <c r="ACF52"/>
-      <c r="ACG52"/>
-      <c r="ACH52"/>
-      <c r="ACI52"/>
-      <c r="ACJ52"/>
-      <c r="ACK52"/>
-      <c r="ACL52"/>
-      <c r="ACM52"/>
-      <c r="ACN52"/>
-      <c r="ACO52"/>
-      <c r="ACP52"/>
-      <c r="ACQ52"/>
-      <c r="ACR52"/>
-      <c r="ACS52"/>
-      <c r="ACT52"/>
-      <c r="ACU52"/>
-      <c r="ACV52"/>
-      <c r="ACW52"/>
-      <c r="ACX52"/>
-      <c r="ACY52"/>
-      <c r="ACZ52"/>
-      <c r="ADA52"/>
-      <c r="ADB52"/>
-      <c r="ADC52"/>
-      <c r="ADD52"/>
-      <c r="ADE52"/>
-      <c r="ADF52"/>
-      <c r="ADG52"/>
-      <c r="ADH52"/>
-      <c r="ADI52"/>
-      <c r="ADJ52"/>
-      <c r="ADK52"/>
-      <c r="ADL52"/>
-      <c r="ADM52"/>
-      <c r="ADN52"/>
-      <c r="ADO52"/>
-      <c r="ADP52"/>
-      <c r="ADQ52"/>
-      <c r="ADR52"/>
-      <c r="ADS52"/>
-      <c r="ADT52"/>
-      <c r="ADU52"/>
-      <c r="ADV52"/>
-      <c r="ADW52"/>
-      <c r="ADX52"/>
-      <c r="ADY52"/>
-      <c r="ADZ52"/>
-      <c r="AEA52"/>
-      <c r="AEB52"/>
-      <c r="AEC52"/>
-      <c r="AED52"/>
-      <c r="AEE52"/>
-      <c r="AEF52"/>
-      <c r="AEG52"/>
-      <c r="AEH52"/>
-      <c r="AEI52"/>
-      <c r="AEJ52"/>
-      <c r="AEK52"/>
-      <c r="AEL52"/>
-      <c r="AEM52"/>
-      <c r="AEN52"/>
-      <c r="AEO52"/>
-      <c r="AEP52"/>
-      <c r="AEQ52"/>
-      <c r="AER52"/>
-      <c r="AES52"/>
-      <c r="AET52"/>
-      <c r="AEU52"/>
-      <c r="AEV52"/>
-      <c r="AEW52"/>
-      <c r="AEX52"/>
-      <c r="AEY52"/>
-      <c r="AEZ52"/>
-      <c r="AFA52"/>
-      <c r="AFB52"/>
-      <c r="AFC52"/>
-      <c r="AFD52"/>
-      <c r="AFE52"/>
-      <c r="AFF52"/>
-      <c r="AFG52"/>
-      <c r="AFH52"/>
-      <c r="AFI52"/>
-      <c r="AFJ52"/>
-      <c r="AFK52"/>
-      <c r="AFL52"/>
-      <c r="AFM52"/>
-      <c r="AFN52"/>
-      <c r="AFO52"/>
-      <c r="AFP52"/>
-      <c r="AFQ52"/>
-      <c r="AFR52"/>
-      <c r="AFS52"/>
-      <c r="AFT52"/>
-      <c r="AFU52"/>
-      <c r="AFV52"/>
-      <c r="AFW52"/>
-      <c r="AFX52"/>
-      <c r="AFY52"/>
-      <c r="AFZ52"/>
-      <c r="AGA52"/>
-      <c r="AGB52"/>
-      <c r="AGC52"/>
-      <c r="AGD52"/>
-      <c r="AGE52"/>
-      <c r="AGF52"/>
-      <c r="AGG52"/>
-      <c r="AGH52"/>
-      <c r="AGI52"/>
-      <c r="AGJ52"/>
-      <c r="AGK52"/>
-      <c r="AGL52"/>
-      <c r="AGM52"/>
-      <c r="AGN52"/>
-      <c r="AGO52"/>
-      <c r="AGP52"/>
-      <c r="AGQ52"/>
-      <c r="AGR52"/>
-      <c r="AGS52"/>
-      <c r="AGT52"/>
-      <c r="AGU52"/>
-      <c r="AGV52"/>
-      <c r="AGW52"/>
-      <c r="AGX52"/>
-      <c r="AGY52"/>
-      <c r="AGZ52"/>
-      <c r="AHA52"/>
-      <c r="AHB52"/>
-      <c r="AHC52"/>
-      <c r="AHD52"/>
-      <c r="AHE52"/>
-      <c r="AHF52"/>
-      <c r="AHG52"/>
-      <c r="AHH52"/>
-      <c r="AHI52"/>
-      <c r="AHJ52"/>
-      <c r="AHK52"/>
-      <c r="AHL52"/>
-      <c r="AHM52"/>
-      <c r="AHN52"/>
-      <c r="AHO52"/>
-      <c r="AHP52"/>
-      <c r="AHQ52"/>
-      <c r="AHR52"/>
-      <c r="AHS52"/>
-      <c r="AHT52"/>
-      <c r="AHU52"/>
-      <c r="AHV52"/>
-      <c r="AHW52"/>
-      <c r="AHX52"/>
-      <c r="AHY52"/>
-      <c r="AHZ52"/>
-      <c r="AIA52"/>
-      <c r="AIB52"/>
-      <c r="AIC52"/>
-      <c r="AID52"/>
-      <c r="AIE52"/>
-      <c r="AIF52"/>
-      <c r="AIG52"/>
-      <c r="AIH52"/>
-      <c r="AII52"/>
-      <c r="AIJ52"/>
-      <c r="AIK52"/>
-      <c r="AIL52"/>
-      <c r="AIM52"/>
-      <c r="AIN52"/>
-      <c r="AIO52"/>
-      <c r="AIP52"/>
-      <c r="AIQ52"/>
-      <c r="AIR52"/>
-      <c r="AIS52"/>
-      <c r="AIT52"/>
-      <c r="AIU52"/>
-      <c r="AIV52"/>
-      <c r="AIW52"/>
-      <c r="AIX52"/>
-      <c r="AIY52"/>
-      <c r="AIZ52"/>
-      <c r="AJA52"/>
-      <c r="AJB52"/>
-      <c r="AJC52"/>
-      <c r="AJD52"/>
-      <c r="AJE52"/>
-      <c r="AJF52"/>
-      <c r="AJG52"/>
-      <c r="AJH52"/>
-      <c r="AJI52"/>
-      <c r="AJJ52"/>
-      <c r="AJK52"/>
-      <c r="AJL52"/>
-      <c r="AJM52"/>
-      <c r="AJN52"/>
-      <c r="AJO52"/>
-      <c r="AJP52"/>
-      <c r="AJQ52"/>
-      <c r="AJR52"/>
-      <c r="AJS52"/>
-      <c r="AJT52"/>
-      <c r="AJU52"/>
-      <c r="AJV52"/>
-      <c r="AJW52"/>
-      <c r="AJX52"/>
-      <c r="AJY52"/>
-      <c r="AJZ52"/>
-      <c r="AKA52"/>
-      <c r="AKB52"/>
-      <c r="AKC52"/>
-      <c r="AKD52"/>
-      <c r="AKE52"/>
-      <c r="AKF52"/>
-      <c r="AKG52"/>
-      <c r="AKH52"/>
-      <c r="AKI52"/>
-      <c r="AKJ52"/>
-      <c r="AKK52"/>
-      <c r="AKL52"/>
-      <c r="AKM52"/>
-      <c r="AKN52"/>
-      <c r="AKO52"/>
-      <c r="AKP52"/>
-      <c r="AKQ52"/>
-      <c r="AKR52"/>
-      <c r="AKS52"/>
-      <c r="AKT52"/>
-      <c r="AKU52"/>
-      <c r="AKV52"/>
-      <c r="AKW52"/>
-      <c r="AKX52"/>
-      <c r="AKY52"/>
-      <c r="AKZ52"/>
-      <c r="ALA52"/>
-      <c r="ALB52"/>
-      <c r="ALC52"/>
-      <c r="ALD52"/>
-      <c r="ALE52"/>
-      <c r="ALF52"/>
-      <c r="ALG52"/>
-      <c r="ALH52"/>
-      <c r="ALI52"/>
-      <c r="ALJ52"/>
-      <c r="ALK52"/>
-      <c r="ALL52"/>
-      <c r="ALM52"/>
-      <c r="ALN52"/>
-      <c r="ALO52"/>
-      <c r="ALP52"/>
-      <c r="ALQ52"/>
-      <c r="ALR52"/>
-      <c r="ALS52"/>
-      <c r="ALT52"/>
-      <c r="ALU52"/>
-      <c r="ALV52"/>
-      <c r="ALW52"/>
-      <c r="ALX52"/>
-      <c r="ALY52"/>
-      <c r="ALZ52"/>
-      <c r="AMA52"/>
-      <c r="AMB52"/>
-      <c r="AMC52"/>
-      <c r="AMD52"/>
-      <c r="AME52"/>
-      <c r="AMF52"/>
-      <c r="AMG52"/>
-      <c r="AMH52"/>
-      <c r="AMI52"/>
     </row>
     <row r="53" spans="1:1023">
       <c r="A53" s="79" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D53" s="67" t="s">
-        <v>271</v>
-      </c>
-      <c r="E53" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>273</v>
+      </c>
       <c r="F53"/>
       <c r="G53"/>
       <c r="H53"/>
@@ -6318,13 +5308,13 @@
     </row>
     <row r="54" spans="1:1023">
       <c r="A54" s="79" t="s">
+        <v>353</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C54" s="46" t="s">
         <v>355</v>
-      </c>
-      <c r="B54" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="C54" s="46" t="s">
-        <v>358</v>
       </c>
       <c r="D54" s="67" t="s">
         <v>271</v>
@@ -7351,16 +6341,16 @@
     </row>
     <row r="55" spans="1:1023">
       <c r="A55" s="79" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B55" s="31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>277</v>
+        <v>356</v>
       </c>
       <c r="D55" s="67" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E55" s="5"/>
       <c r="F55"/>
@@ -8384,20 +7374,18 @@
     </row>
     <row r="56" spans="1:1023">
       <c r="A56" s="79" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B56" s="31" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C56" s="46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="D56" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="E56" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="E56" s="5"/>
       <c r="F56"/>
       <c r="G56"/>
       <c r="H56"/>
@@ -9418,47 +8406,1067 @@
       <c r="AMI56"/>
     </row>
     <row r="57" spans="1:1023">
-      <c r="A57" s="55" t="s">
-        <v>265</v>
-      </c>
-      <c r="B57" s="77" t="s">
-        <v>6</v>
+      <c r="A57" s="79" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57" s="31" t="s">
+        <v>11</v>
       </c>
       <c r="C57" s="46" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D57" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="E57" s="11" t="s">
-        <v>273</v>
-      </c>
+      <c r="E57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57"/>
+      <c r="H57"/>
+      <c r="I57"/>
+      <c r="J57"/>
+      <c r="K57"/>
+      <c r="L57"/>
+      <c r="M57"/>
+      <c r="N57"/>
+      <c r="O57"/>
+      <c r="P57"/>
+      <c r="Q57"/>
+      <c r="R57"/>
+      <c r="S57"/>
+      <c r="T57"/>
+      <c r="U57"/>
+      <c r="V57"/>
+      <c r="W57"/>
+      <c r="X57"/>
+      <c r="Y57"/>
+      <c r="Z57"/>
+      <c r="AA57"/>
+      <c r="AB57"/>
+      <c r="AC57"/>
+      <c r="AD57"/>
+      <c r="AE57"/>
+      <c r="AF57"/>
+      <c r="AG57"/>
+      <c r="AH57"/>
+      <c r="AI57"/>
+      <c r="AJ57"/>
+      <c r="AK57"/>
+      <c r="AL57"/>
+      <c r="AM57"/>
+      <c r="AN57"/>
+      <c r="AO57"/>
+      <c r="AP57"/>
+      <c r="AQ57"/>
+      <c r="AR57"/>
+      <c r="AS57"/>
+      <c r="AT57"/>
+      <c r="AU57"/>
+      <c r="AV57"/>
+      <c r="AW57"/>
+      <c r="AX57"/>
+      <c r="AY57"/>
+      <c r="AZ57"/>
+      <c r="BA57"/>
+      <c r="BB57"/>
+      <c r="BC57"/>
+      <c r="BD57"/>
+      <c r="BE57"/>
+      <c r="BF57"/>
+      <c r="BG57"/>
+      <c r="BH57"/>
+      <c r="BI57"/>
+      <c r="BJ57"/>
+      <c r="BK57"/>
+      <c r="BL57"/>
+      <c r="BM57"/>
+      <c r="BN57"/>
+      <c r="BO57"/>
+      <c r="BP57"/>
+      <c r="BQ57"/>
+      <c r="BR57"/>
+      <c r="BS57"/>
+      <c r="BT57"/>
+      <c r="BU57"/>
+      <c r="BV57"/>
+      <c r="BW57"/>
+      <c r="BX57"/>
+      <c r="BY57"/>
+      <c r="BZ57"/>
+      <c r="CA57"/>
+      <c r="CB57"/>
+      <c r="CC57"/>
+      <c r="CD57"/>
+      <c r="CE57"/>
+      <c r="CF57"/>
+      <c r="CG57"/>
+      <c r="CH57"/>
+      <c r="CI57"/>
+      <c r="CJ57"/>
+      <c r="CK57"/>
+      <c r="CL57"/>
+      <c r="CM57"/>
+      <c r="CN57"/>
+      <c r="CO57"/>
+      <c r="CP57"/>
+      <c r="CQ57"/>
+      <c r="CR57"/>
+      <c r="CS57"/>
+      <c r="CT57"/>
+      <c r="CU57"/>
+      <c r="CV57"/>
+      <c r="CW57"/>
+      <c r="CX57"/>
+      <c r="CY57"/>
+      <c r="CZ57"/>
+      <c r="DA57"/>
+      <c r="DB57"/>
+      <c r="DC57"/>
+      <c r="DD57"/>
+      <c r="DE57"/>
+      <c r="DF57"/>
+      <c r="DG57"/>
+      <c r="DH57"/>
+      <c r="DI57"/>
+      <c r="DJ57"/>
+      <c r="DK57"/>
+      <c r="DL57"/>
+      <c r="DM57"/>
+      <c r="DN57"/>
+      <c r="DO57"/>
+      <c r="DP57"/>
+      <c r="DQ57"/>
+      <c r="DR57"/>
+      <c r="DS57"/>
+      <c r="DT57"/>
+      <c r="DU57"/>
+      <c r="DV57"/>
+      <c r="DW57"/>
+      <c r="DX57"/>
+      <c r="DY57"/>
+      <c r="DZ57"/>
+      <c r="EA57"/>
+      <c r="EB57"/>
+      <c r="EC57"/>
+      <c r="ED57"/>
+      <c r="EE57"/>
+      <c r="EF57"/>
+      <c r="EG57"/>
+      <c r="EH57"/>
+      <c r="EI57"/>
+      <c r="EJ57"/>
+      <c r="EK57"/>
+      <c r="EL57"/>
+      <c r="EM57"/>
+      <c r="EN57"/>
+      <c r="EO57"/>
+      <c r="EP57"/>
+      <c r="EQ57"/>
+      <c r="ER57"/>
+      <c r="ES57"/>
+      <c r="ET57"/>
+      <c r="EU57"/>
+      <c r="EV57"/>
+      <c r="EW57"/>
+      <c r="EX57"/>
+      <c r="EY57"/>
+      <c r="EZ57"/>
+      <c r="FA57"/>
+      <c r="FB57"/>
+      <c r="FC57"/>
+      <c r="FD57"/>
+      <c r="FE57"/>
+      <c r="FF57"/>
+      <c r="FG57"/>
+      <c r="FH57"/>
+      <c r="FI57"/>
+      <c r="FJ57"/>
+      <c r="FK57"/>
+      <c r="FL57"/>
+      <c r="FM57"/>
+      <c r="FN57"/>
+      <c r="FO57"/>
+      <c r="FP57"/>
+      <c r="FQ57"/>
+      <c r="FR57"/>
+      <c r="FS57"/>
+      <c r="FT57"/>
+      <c r="FU57"/>
+      <c r="FV57"/>
+      <c r="FW57"/>
+      <c r="FX57"/>
+      <c r="FY57"/>
+      <c r="FZ57"/>
+      <c r="GA57"/>
+      <c r="GB57"/>
+      <c r="GC57"/>
+      <c r="GD57"/>
+      <c r="GE57"/>
+      <c r="GF57"/>
+      <c r="GG57"/>
+      <c r="GH57"/>
+      <c r="GI57"/>
+      <c r="GJ57"/>
+      <c r="GK57"/>
+      <c r="GL57"/>
+      <c r="GM57"/>
+      <c r="GN57"/>
+      <c r="GO57"/>
+      <c r="GP57"/>
+      <c r="GQ57"/>
+      <c r="GR57"/>
+      <c r="GS57"/>
+      <c r="GT57"/>
+      <c r="GU57"/>
+      <c r="GV57"/>
+      <c r="GW57"/>
+      <c r="GX57"/>
+      <c r="GY57"/>
+      <c r="GZ57"/>
+      <c r="HA57"/>
+      <c r="HB57"/>
+      <c r="HC57"/>
+      <c r="HD57"/>
+      <c r="HE57"/>
+      <c r="HF57"/>
+      <c r="HG57"/>
+      <c r="HH57"/>
+      <c r="HI57"/>
+      <c r="HJ57"/>
+      <c r="HK57"/>
+      <c r="HL57"/>
+      <c r="HM57"/>
+      <c r="HN57"/>
+      <c r="HO57"/>
+      <c r="HP57"/>
+      <c r="HQ57"/>
+      <c r="HR57"/>
+      <c r="HS57"/>
+      <c r="HT57"/>
+      <c r="HU57"/>
+      <c r="HV57"/>
+      <c r="HW57"/>
+      <c r="HX57"/>
+      <c r="HY57"/>
+      <c r="HZ57"/>
+      <c r="IA57"/>
+      <c r="IB57"/>
+      <c r="IC57"/>
+      <c r="ID57"/>
+      <c r="IE57"/>
+      <c r="IF57"/>
+      <c r="IG57"/>
+      <c r="IH57"/>
+      <c r="II57"/>
+      <c r="IJ57"/>
+      <c r="IK57"/>
+      <c r="IL57"/>
+      <c r="IM57"/>
+      <c r="IN57"/>
+      <c r="IO57"/>
+      <c r="IP57"/>
+      <c r="IQ57"/>
+      <c r="IR57"/>
+      <c r="IS57"/>
+      <c r="IT57"/>
+      <c r="IU57"/>
+      <c r="IV57"/>
+      <c r="IW57"/>
+      <c r="IX57"/>
+      <c r="IY57"/>
+      <c r="IZ57"/>
+      <c r="JA57"/>
+      <c r="JB57"/>
+      <c r="JC57"/>
+      <c r="JD57"/>
+      <c r="JE57"/>
+      <c r="JF57"/>
+      <c r="JG57"/>
+      <c r="JH57"/>
+      <c r="JI57"/>
+      <c r="JJ57"/>
+      <c r="JK57"/>
+      <c r="JL57"/>
+      <c r="JM57"/>
+      <c r="JN57"/>
+      <c r="JO57"/>
+      <c r="JP57"/>
+      <c r="JQ57"/>
+      <c r="JR57"/>
+      <c r="JS57"/>
+      <c r="JT57"/>
+      <c r="JU57"/>
+      <c r="JV57"/>
+      <c r="JW57"/>
+      <c r="JX57"/>
+      <c r="JY57"/>
+      <c r="JZ57"/>
+      <c r="KA57"/>
+      <c r="KB57"/>
+      <c r="KC57"/>
+      <c r="KD57"/>
+      <c r="KE57"/>
+      <c r="KF57"/>
+      <c r="KG57"/>
+      <c r="KH57"/>
+      <c r="KI57"/>
+      <c r="KJ57"/>
+      <c r="KK57"/>
+      <c r="KL57"/>
+      <c r="KM57"/>
+      <c r="KN57"/>
+      <c r="KO57"/>
+      <c r="KP57"/>
+      <c r="KQ57"/>
+      <c r="KR57"/>
+      <c r="KS57"/>
+      <c r="KT57"/>
+      <c r="KU57"/>
+      <c r="KV57"/>
+      <c r="KW57"/>
+      <c r="KX57"/>
+      <c r="KY57"/>
+      <c r="KZ57"/>
+      <c r="LA57"/>
+      <c r="LB57"/>
+      <c r="LC57"/>
+      <c r="LD57"/>
+      <c r="LE57"/>
+      <c r="LF57"/>
+      <c r="LG57"/>
+      <c r="LH57"/>
+      <c r="LI57"/>
+      <c r="LJ57"/>
+      <c r="LK57"/>
+      <c r="LL57"/>
+      <c r="LM57"/>
+      <c r="LN57"/>
+      <c r="LO57"/>
+      <c r="LP57"/>
+      <c r="LQ57"/>
+      <c r="LR57"/>
+      <c r="LS57"/>
+      <c r="LT57"/>
+      <c r="LU57"/>
+      <c r="LV57"/>
+      <c r="LW57"/>
+      <c r="LX57"/>
+      <c r="LY57"/>
+      <c r="LZ57"/>
+      <c r="MA57"/>
+      <c r="MB57"/>
+      <c r="MC57"/>
+      <c r="MD57"/>
+      <c r="ME57"/>
+      <c r="MF57"/>
+      <c r="MG57"/>
+      <c r="MH57"/>
+      <c r="MI57"/>
+      <c r="MJ57"/>
+      <c r="MK57"/>
+      <c r="ML57"/>
+      <c r="MM57"/>
+      <c r="MN57"/>
+      <c r="MO57"/>
+      <c r="MP57"/>
+      <c r="MQ57"/>
+      <c r="MR57"/>
+      <c r="MS57"/>
+      <c r="MT57"/>
+      <c r="MU57"/>
+      <c r="MV57"/>
+      <c r="MW57"/>
+      <c r="MX57"/>
+      <c r="MY57"/>
+      <c r="MZ57"/>
+      <c r="NA57"/>
+      <c r="NB57"/>
+      <c r="NC57"/>
+      <c r="ND57"/>
+      <c r="NE57"/>
+      <c r="NF57"/>
+      <c r="NG57"/>
+      <c r="NH57"/>
+      <c r="NI57"/>
+      <c r="NJ57"/>
+      <c r="NK57"/>
+      <c r="NL57"/>
+      <c r="NM57"/>
+      <c r="NN57"/>
+      <c r="NO57"/>
+      <c r="NP57"/>
+      <c r="NQ57"/>
+      <c r="NR57"/>
+      <c r="NS57"/>
+      <c r="NT57"/>
+      <c r="NU57"/>
+      <c r="NV57"/>
+      <c r="NW57"/>
+      <c r="NX57"/>
+      <c r="NY57"/>
+      <c r="NZ57"/>
+      <c r="OA57"/>
+      <c r="OB57"/>
+      <c r="OC57"/>
+      <c r="OD57"/>
+      <c r="OE57"/>
+      <c r="OF57"/>
+      <c r="OG57"/>
+      <c r="OH57"/>
+      <c r="OI57"/>
+      <c r="OJ57"/>
+      <c r="OK57"/>
+      <c r="OL57"/>
+      <c r="OM57"/>
+      <c r="ON57"/>
+      <c r="OO57"/>
+      <c r="OP57"/>
+      <c r="OQ57"/>
+      <c r="OR57"/>
+      <c r="OS57"/>
+      <c r="OT57"/>
+      <c r="OU57"/>
+      <c r="OV57"/>
+      <c r="OW57"/>
+      <c r="OX57"/>
+      <c r="OY57"/>
+      <c r="OZ57"/>
+      <c r="PA57"/>
+      <c r="PB57"/>
+      <c r="PC57"/>
+      <c r="PD57"/>
+      <c r="PE57"/>
+      <c r="PF57"/>
+      <c r="PG57"/>
+      <c r="PH57"/>
+      <c r="PI57"/>
+      <c r="PJ57"/>
+      <c r="PK57"/>
+      <c r="PL57"/>
+      <c r="PM57"/>
+      <c r="PN57"/>
+      <c r="PO57"/>
+      <c r="PP57"/>
+      <c r="PQ57"/>
+      <c r="PR57"/>
+      <c r="PS57"/>
+      <c r="PT57"/>
+      <c r="PU57"/>
+      <c r="PV57"/>
+      <c r="PW57"/>
+      <c r="PX57"/>
+      <c r="PY57"/>
+      <c r="PZ57"/>
+      <c r="QA57"/>
+      <c r="QB57"/>
+      <c r="QC57"/>
+      <c r="QD57"/>
+      <c r="QE57"/>
+      <c r="QF57"/>
+      <c r="QG57"/>
+      <c r="QH57"/>
+      <c r="QI57"/>
+      <c r="QJ57"/>
+      <c r="QK57"/>
+      <c r="QL57"/>
+      <c r="QM57"/>
+      <c r="QN57"/>
+      <c r="QO57"/>
+      <c r="QP57"/>
+      <c r="QQ57"/>
+      <c r="QR57"/>
+      <c r="QS57"/>
+      <c r="QT57"/>
+      <c r="QU57"/>
+      <c r="QV57"/>
+      <c r="QW57"/>
+      <c r="QX57"/>
+      <c r="QY57"/>
+      <c r="QZ57"/>
+      <c r="RA57"/>
+      <c r="RB57"/>
+      <c r="RC57"/>
+      <c r="RD57"/>
+      <c r="RE57"/>
+      <c r="RF57"/>
+      <c r="RG57"/>
+      <c r="RH57"/>
+      <c r="RI57"/>
+      <c r="RJ57"/>
+      <c r="RK57"/>
+      <c r="RL57"/>
+      <c r="RM57"/>
+      <c r="RN57"/>
+      <c r="RO57"/>
+      <c r="RP57"/>
+      <c r="RQ57"/>
+      <c r="RR57"/>
+      <c r="RS57"/>
+      <c r="RT57"/>
+      <c r="RU57"/>
+      <c r="RV57"/>
+      <c r="RW57"/>
+      <c r="RX57"/>
+      <c r="RY57"/>
+      <c r="RZ57"/>
+      <c r="SA57"/>
+      <c r="SB57"/>
+      <c r="SC57"/>
+      <c r="SD57"/>
+      <c r="SE57"/>
+      <c r="SF57"/>
+      <c r="SG57"/>
+      <c r="SH57"/>
+      <c r="SI57"/>
+      <c r="SJ57"/>
+      <c r="SK57"/>
+      <c r="SL57"/>
+      <c r="SM57"/>
+      <c r="SN57"/>
+      <c r="SO57"/>
+      <c r="SP57"/>
+      <c r="SQ57"/>
+      <c r="SR57"/>
+      <c r="SS57"/>
+      <c r="ST57"/>
+      <c r="SU57"/>
+      <c r="SV57"/>
+      <c r="SW57"/>
+      <c r="SX57"/>
+      <c r="SY57"/>
+      <c r="SZ57"/>
+      <c r="TA57"/>
+      <c r="TB57"/>
+      <c r="TC57"/>
+      <c r="TD57"/>
+      <c r="TE57"/>
+      <c r="TF57"/>
+      <c r="TG57"/>
+      <c r="TH57"/>
+      <c r="TI57"/>
+      <c r="TJ57"/>
+      <c r="TK57"/>
+      <c r="TL57"/>
+      <c r="TM57"/>
+      <c r="TN57"/>
+      <c r="TO57"/>
+      <c r="TP57"/>
+      <c r="TQ57"/>
+      <c r="TR57"/>
+      <c r="TS57"/>
+      <c r="TT57"/>
+      <c r="TU57"/>
+      <c r="TV57"/>
+      <c r="TW57"/>
+      <c r="TX57"/>
+      <c r="TY57"/>
+      <c r="TZ57"/>
+      <c r="UA57"/>
+      <c r="UB57"/>
+      <c r="UC57"/>
+      <c r="UD57"/>
+      <c r="UE57"/>
+      <c r="UF57"/>
+      <c r="UG57"/>
+      <c r="UH57"/>
+      <c r="UI57"/>
+      <c r="UJ57"/>
+      <c r="UK57"/>
+      <c r="UL57"/>
+      <c r="UM57"/>
+      <c r="UN57"/>
+      <c r="UO57"/>
+      <c r="UP57"/>
+      <c r="UQ57"/>
+      <c r="UR57"/>
+      <c r="US57"/>
+      <c r="UT57"/>
+      <c r="UU57"/>
+      <c r="UV57"/>
+      <c r="UW57"/>
+      <c r="UX57"/>
+      <c r="UY57"/>
+      <c r="UZ57"/>
+      <c r="VA57"/>
+      <c r="VB57"/>
+      <c r="VC57"/>
+      <c r="VD57"/>
+      <c r="VE57"/>
+      <c r="VF57"/>
+      <c r="VG57"/>
+      <c r="VH57"/>
+      <c r="VI57"/>
+      <c r="VJ57"/>
+      <c r="VK57"/>
+      <c r="VL57"/>
+      <c r="VM57"/>
+      <c r="VN57"/>
+      <c r="VO57"/>
+      <c r="VP57"/>
+      <c r="VQ57"/>
+      <c r="VR57"/>
+      <c r="VS57"/>
+      <c r="VT57"/>
+      <c r="VU57"/>
+      <c r="VV57"/>
+      <c r="VW57"/>
+      <c r="VX57"/>
+      <c r="VY57"/>
+      <c r="VZ57"/>
+      <c r="WA57"/>
+      <c r="WB57"/>
+      <c r="WC57"/>
+      <c r="WD57"/>
+      <c r="WE57"/>
+      <c r="WF57"/>
+      <c r="WG57"/>
+      <c r="WH57"/>
+      <c r="WI57"/>
+      <c r="WJ57"/>
+      <c r="WK57"/>
+      <c r="WL57"/>
+      <c r="WM57"/>
+      <c r="WN57"/>
+      <c r="WO57"/>
+      <c r="WP57"/>
+      <c r="WQ57"/>
+      <c r="WR57"/>
+      <c r="WS57"/>
+      <c r="WT57"/>
+      <c r="WU57"/>
+      <c r="WV57"/>
+      <c r="WW57"/>
+      <c r="WX57"/>
+      <c r="WY57"/>
+      <c r="WZ57"/>
+      <c r="XA57"/>
+      <c r="XB57"/>
+      <c r="XC57"/>
+      <c r="XD57"/>
+      <c r="XE57"/>
+      <c r="XF57"/>
+      <c r="XG57"/>
+      <c r="XH57"/>
+      <c r="XI57"/>
+      <c r="XJ57"/>
+      <c r="XK57"/>
+      <c r="XL57"/>
+      <c r="XM57"/>
+      <c r="XN57"/>
+      <c r="XO57"/>
+      <c r="XP57"/>
+      <c r="XQ57"/>
+      <c r="XR57"/>
+      <c r="XS57"/>
+      <c r="XT57"/>
+      <c r="XU57"/>
+      <c r="XV57"/>
+      <c r="XW57"/>
+      <c r="XX57"/>
+      <c r="XY57"/>
+      <c r="XZ57"/>
+      <c r="YA57"/>
+      <c r="YB57"/>
+      <c r="YC57"/>
+      <c r="YD57"/>
+      <c r="YE57"/>
+      <c r="YF57"/>
+      <c r="YG57"/>
+      <c r="YH57"/>
+      <c r="YI57"/>
+      <c r="YJ57"/>
+      <c r="YK57"/>
+      <c r="YL57"/>
+      <c r="YM57"/>
+      <c r="YN57"/>
+      <c r="YO57"/>
+      <c r="YP57"/>
+      <c r="YQ57"/>
+      <c r="YR57"/>
+      <c r="YS57"/>
+      <c r="YT57"/>
+      <c r="YU57"/>
+      <c r="YV57"/>
+      <c r="YW57"/>
+      <c r="YX57"/>
+      <c r="YY57"/>
+      <c r="YZ57"/>
+      <c r="ZA57"/>
+      <c r="ZB57"/>
+      <c r="ZC57"/>
+      <c r="ZD57"/>
+      <c r="ZE57"/>
+      <c r="ZF57"/>
+      <c r="ZG57"/>
+      <c r="ZH57"/>
+      <c r="ZI57"/>
+      <c r="ZJ57"/>
+      <c r="ZK57"/>
+      <c r="ZL57"/>
+      <c r="ZM57"/>
+      <c r="ZN57"/>
+      <c r="ZO57"/>
+      <c r="ZP57"/>
+      <c r="ZQ57"/>
+      <c r="ZR57"/>
+      <c r="ZS57"/>
+      <c r="ZT57"/>
+      <c r="ZU57"/>
+      <c r="ZV57"/>
+      <c r="ZW57"/>
+      <c r="ZX57"/>
+      <c r="ZY57"/>
+      <c r="ZZ57"/>
+      <c r="AAA57"/>
+      <c r="AAB57"/>
+      <c r="AAC57"/>
+      <c r="AAD57"/>
+      <c r="AAE57"/>
+      <c r="AAF57"/>
+      <c r="AAG57"/>
+      <c r="AAH57"/>
+      <c r="AAI57"/>
+      <c r="AAJ57"/>
+      <c r="AAK57"/>
+      <c r="AAL57"/>
+      <c r="AAM57"/>
+      <c r="AAN57"/>
+      <c r="AAO57"/>
+      <c r="AAP57"/>
+      <c r="AAQ57"/>
+      <c r="AAR57"/>
+      <c r="AAS57"/>
+      <c r="AAT57"/>
+      <c r="AAU57"/>
+      <c r="AAV57"/>
+      <c r="AAW57"/>
+      <c r="AAX57"/>
+      <c r="AAY57"/>
+      <c r="AAZ57"/>
+      <c r="ABA57"/>
+      <c r="ABB57"/>
+      <c r="ABC57"/>
+      <c r="ABD57"/>
+      <c r="ABE57"/>
+      <c r="ABF57"/>
+      <c r="ABG57"/>
+      <c r="ABH57"/>
+      <c r="ABI57"/>
+      <c r="ABJ57"/>
+      <c r="ABK57"/>
+      <c r="ABL57"/>
+      <c r="ABM57"/>
+      <c r="ABN57"/>
+      <c r="ABO57"/>
+      <c r="ABP57"/>
+      <c r="ABQ57"/>
+      <c r="ABR57"/>
+      <c r="ABS57"/>
+      <c r="ABT57"/>
+      <c r="ABU57"/>
+      <c r="ABV57"/>
+      <c r="ABW57"/>
+      <c r="ABX57"/>
+      <c r="ABY57"/>
+      <c r="ABZ57"/>
+      <c r="ACA57"/>
+      <c r="ACB57"/>
+      <c r="ACC57"/>
+      <c r="ACD57"/>
+      <c r="ACE57"/>
+      <c r="ACF57"/>
+      <c r="ACG57"/>
+      <c r="ACH57"/>
+      <c r="ACI57"/>
+      <c r="ACJ57"/>
+      <c r="ACK57"/>
+      <c r="ACL57"/>
+      <c r="ACM57"/>
+      <c r="ACN57"/>
+      <c r="ACO57"/>
+      <c r="ACP57"/>
+      <c r="ACQ57"/>
+      <c r="ACR57"/>
+      <c r="ACS57"/>
+      <c r="ACT57"/>
+      <c r="ACU57"/>
+      <c r="ACV57"/>
+      <c r="ACW57"/>
+      <c r="ACX57"/>
+      <c r="ACY57"/>
+      <c r="ACZ57"/>
+      <c r="ADA57"/>
+      <c r="ADB57"/>
+      <c r="ADC57"/>
+      <c r="ADD57"/>
+      <c r="ADE57"/>
+      <c r="ADF57"/>
+      <c r="ADG57"/>
+      <c r="ADH57"/>
+      <c r="ADI57"/>
+      <c r="ADJ57"/>
+      <c r="ADK57"/>
+      <c r="ADL57"/>
+      <c r="ADM57"/>
+      <c r="ADN57"/>
+      <c r="ADO57"/>
+      <c r="ADP57"/>
+      <c r="ADQ57"/>
+      <c r="ADR57"/>
+      <c r="ADS57"/>
+      <c r="ADT57"/>
+      <c r="ADU57"/>
+      <c r="ADV57"/>
+      <c r="ADW57"/>
+      <c r="ADX57"/>
+      <c r="ADY57"/>
+      <c r="ADZ57"/>
+      <c r="AEA57"/>
+      <c r="AEB57"/>
+      <c r="AEC57"/>
+      <c r="AED57"/>
+      <c r="AEE57"/>
+      <c r="AEF57"/>
+      <c r="AEG57"/>
+      <c r="AEH57"/>
+      <c r="AEI57"/>
+      <c r="AEJ57"/>
+      <c r="AEK57"/>
+      <c r="AEL57"/>
+      <c r="AEM57"/>
+      <c r="AEN57"/>
+      <c r="AEO57"/>
+      <c r="AEP57"/>
+      <c r="AEQ57"/>
+      <c r="AER57"/>
+      <c r="AES57"/>
+      <c r="AET57"/>
+      <c r="AEU57"/>
+      <c r="AEV57"/>
+      <c r="AEW57"/>
+      <c r="AEX57"/>
+      <c r="AEY57"/>
+      <c r="AEZ57"/>
+      <c r="AFA57"/>
+      <c r="AFB57"/>
+      <c r="AFC57"/>
+      <c r="AFD57"/>
+      <c r="AFE57"/>
+      <c r="AFF57"/>
+      <c r="AFG57"/>
+      <c r="AFH57"/>
+      <c r="AFI57"/>
+      <c r="AFJ57"/>
+      <c r="AFK57"/>
+      <c r="AFL57"/>
+      <c r="AFM57"/>
+      <c r="AFN57"/>
+      <c r="AFO57"/>
+      <c r="AFP57"/>
+      <c r="AFQ57"/>
+      <c r="AFR57"/>
+      <c r="AFS57"/>
+      <c r="AFT57"/>
+      <c r="AFU57"/>
+      <c r="AFV57"/>
+      <c r="AFW57"/>
+      <c r="AFX57"/>
+      <c r="AFY57"/>
+      <c r="AFZ57"/>
+      <c r="AGA57"/>
+      <c r="AGB57"/>
+      <c r="AGC57"/>
+      <c r="AGD57"/>
+      <c r="AGE57"/>
+      <c r="AGF57"/>
+      <c r="AGG57"/>
+      <c r="AGH57"/>
+      <c r="AGI57"/>
+      <c r="AGJ57"/>
+      <c r="AGK57"/>
+      <c r="AGL57"/>
+      <c r="AGM57"/>
+      <c r="AGN57"/>
+      <c r="AGO57"/>
+      <c r="AGP57"/>
+      <c r="AGQ57"/>
+      <c r="AGR57"/>
+      <c r="AGS57"/>
+      <c r="AGT57"/>
+      <c r="AGU57"/>
+      <c r="AGV57"/>
+      <c r="AGW57"/>
+      <c r="AGX57"/>
+      <c r="AGY57"/>
+      <c r="AGZ57"/>
+      <c r="AHA57"/>
+      <c r="AHB57"/>
+      <c r="AHC57"/>
+      <c r="AHD57"/>
+      <c r="AHE57"/>
+      <c r="AHF57"/>
+      <c r="AHG57"/>
+      <c r="AHH57"/>
+      <c r="AHI57"/>
+      <c r="AHJ57"/>
+      <c r="AHK57"/>
+      <c r="AHL57"/>
+      <c r="AHM57"/>
+      <c r="AHN57"/>
+      <c r="AHO57"/>
+      <c r="AHP57"/>
+      <c r="AHQ57"/>
+      <c r="AHR57"/>
+      <c r="AHS57"/>
+      <c r="AHT57"/>
+      <c r="AHU57"/>
+      <c r="AHV57"/>
+      <c r="AHW57"/>
+      <c r="AHX57"/>
+      <c r="AHY57"/>
+      <c r="AHZ57"/>
+      <c r="AIA57"/>
+      <c r="AIB57"/>
+      <c r="AIC57"/>
+      <c r="AID57"/>
+      <c r="AIE57"/>
+      <c r="AIF57"/>
+      <c r="AIG57"/>
+      <c r="AIH57"/>
+      <c r="AII57"/>
+      <c r="AIJ57"/>
+      <c r="AIK57"/>
+      <c r="AIL57"/>
+      <c r="AIM57"/>
+      <c r="AIN57"/>
+      <c r="AIO57"/>
+      <c r="AIP57"/>
+      <c r="AIQ57"/>
+      <c r="AIR57"/>
+      <c r="AIS57"/>
+      <c r="AIT57"/>
+      <c r="AIU57"/>
+      <c r="AIV57"/>
+      <c r="AIW57"/>
+      <c r="AIX57"/>
+      <c r="AIY57"/>
+      <c r="AIZ57"/>
+      <c r="AJA57"/>
+      <c r="AJB57"/>
+      <c r="AJC57"/>
+      <c r="AJD57"/>
+      <c r="AJE57"/>
+      <c r="AJF57"/>
+      <c r="AJG57"/>
+      <c r="AJH57"/>
+      <c r="AJI57"/>
+      <c r="AJJ57"/>
+      <c r="AJK57"/>
+      <c r="AJL57"/>
+      <c r="AJM57"/>
+      <c r="AJN57"/>
+      <c r="AJO57"/>
+      <c r="AJP57"/>
+      <c r="AJQ57"/>
+      <c r="AJR57"/>
+      <c r="AJS57"/>
+      <c r="AJT57"/>
+      <c r="AJU57"/>
+      <c r="AJV57"/>
+      <c r="AJW57"/>
+      <c r="AJX57"/>
+      <c r="AJY57"/>
+      <c r="AJZ57"/>
+      <c r="AKA57"/>
+      <c r="AKB57"/>
+      <c r="AKC57"/>
+      <c r="AKD57"/>
+      <c r="AKE57"/>
+      <c r="AKF57"/>
+      <c r="AKG57"/>
+      <c r="AKH57"/>
+      <c r="AKI57"/>
+      <c r="AKJ57"/>
+      <c r="AKK57"/>
+      <c r="AKL57"/>
+      <c r="AKM57"/>
+      <c r="AKN57"/>
+      <c r="AKO57"/>
+      <c r="AKP57"/>
+      <c r="AKQ57"/>
+      <c r="AKR57"/>
+      <c r="AKS57"/>
+      <c r="AKT57"/>
+      <c r="AKU57"/>
+      <c r="AKV57"/>
+      <c r="AKW57"/>
+      <c r="AKX57"/>
+      <c r="AKY57"/>
+      <c r="AKZ57"/>
+      <c r="ALA57"/>
+      <c r="ALB57"/>
+      <c r="ALC57"/>
+      <c r="ALD57"/>
+      <c r="ALE57"/>
+      <c r="ALF57"/>
+      <c r="ALG57"/>
+      <c r="ALH57"/>
+      <c r="ALI57"/>
+      <c r="ALJ57"/>
+      <c r="ALK57"/>
+      <c r="ALL57"/>
+      <c r="ALM57"/>
+      <c r="ALN57"/>
+      <c r="ALO57"/>
+      <c r="ALP57"/>
+      <c r="ALQ57"/>
+      <c r="ALR57"/>
+      <c r="ALS57"/>
+      <c r="ALT57"/>
+      <c r="ALU57"/>
+      <c r="ALV57"/>
+      <c r="ALW57"/>
+      <c r="ALX57"/>
+      <c r="ALY57"/>
+      <c r="ALZ57"/>
+      <c r="AMA57"/>
+      <c r="AMB57"/>
+      <c r="AMC57"/>
+      <c r="AMD57"/>
+      <c r="AME57"/>
+      <c r="AMF57"/>
+      <c r="AMG57"/>
+      <c r="AMH57"/>
+      <c r="AMI57"/>
     </row>
     <row r="58" spans="1:1023">
       <c r="A58" s="55" t="s">
         <v>265</v>
       </c>
       <c r="B58" s="77" t="s">
-        <v>267</v>
-      </c>
-      <c r="C58" s="46"/>
+        <v>6</v>
+      </c>
+      <c r="C58" s="46" t="s">
+        <v>266</v>
+      </c>
       <c r="D58" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="E58" s="5"/>
+      <c r="E58" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="59" spans="1:1023">
       <c r="A59" s="55" t="s">
         <v>265</v>
       </c>
       <c r="B59" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="C59" s="46" t="s">
-        <v>268</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C59" s="46"/>
       <c r="D59" s="67" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E59" s="5"/>
     </row>
@@ -9467,74 +9475,74 @@
         <v>265</v>
       </c>
       <c r="B60" s="77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C60" s="46" t="s">
+        <v>268</v>
+      </c>
+      <c r="D60" s="67" t="s">
+        <v>271</v>
+      </c>
+      <c r="E60" s="5"/>
+    </row>
+    <row r="61" spans="1:1023">
+      <c r="A61" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B61" s="77" t="s">
+        <v>360</v>
+      </c>
+      <c r="C61" s="83" t="s">
+        <v>361</v>
+      </c>
+      <c r="D61" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:1023">
+      <c r="A62" s="55" t="s">
+        <v>265</v>
+      </c>
+      <c r="B62" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="46" t="s">
+      <c r="C62" s="46" t="s">
         <v>277</v>
       </c>
-      <c r="D60" s="67" t="s">
+      <c r="D62" s="67" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="61" spans="1:1023">
-      <c r="A61" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B61" s="73" t="s">
-        <v>6</v>
-      </c>
-      <c r="C61" s="49" t="s">
-        <v>315</v>
-      </c>
-      <c r="D61" s="70" t="s">
-        <v>272</v>
-      </c>
-      <c r="E61" s="11" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1023">
-      <c r="A62" s="72" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" s="73" t="s">
-        <v>329</v>
-      </c>
-      <c r="C62" s="49" t="s">
-        <v>316</v>
-      </c>
-      <c r="D62" s="70" t="s">
-        <v>271</v>
-      </c>
-      <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:1023">
       <c r="A63" s="72" t="s">
         <v>314</v>
       </c>
       <c r="B63" s="73" t="s">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="C63" s="49" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="D63" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="E63" s="5"/>
+        <v>272</v>
+      </c>
+      <c r="E63" s="11" t="s">
+        <v>273</v>
+      </c>
     </row>
     <row r="64" spans="1:1023">
       <c r="A64" s="72" t="s">
         <v>314</v>
       </c>
       <c r="B64" s="73" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="C64" s="49" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D64" s="70" t="s">
-        <v>322</v>
+        <v>271</v>
       </c>
       <c r="E64" s="5"/>
     </row>
@@ -9543,72 +9551,70 @@
         <v>314</v>
       </c>
       <c r="B65" s="73" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C65" s="49" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D65" s="70" t="s">
         <v>322</v>
       </c>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" ht="38.25">
+    <row r="66" spans="1:5">
       <c r="A66" s="72" t="s">
         <v>314</v>
       </c>
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="73" t="s">
+        <v>319</v>
+      </c>
+      <c r="C66" s="49" t="s">
+        <v>321</v>
+      </c>
+      <c r="D66" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="E66" s="5"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B67" s="73" t="s">
+        <v>323</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>324</v>
+      </c>
+      <c r="D67" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="E67" s="5"/>
+    </row>
+    <row r="68" spans="1:5" ht="38.25">
+      <c r="A68" s="72" t="s">
+        <v>314</v>
+      </c>
+      <c r="B68" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="C66" s="49" t="s">
+      <c r="C68" s="49" t="s">
         <v>332</v>
       </c>
-      <c r="D66" s="70" t="s">
+      <c r="D68" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="E66" s="5"/>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B67" s="31" t="s">
-        <v>296</v>
-      </c>
-      <c r="C67" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="D67" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E67" s="5"/>
-    </row>
-    <row r="68" spans="1:5">
-      <c r="A68" s="55" t="s">
-        <v>313</v>
-      </c>
-      <c r="B68" s="31" t="s">
-        <v>317</v>
-      </c>
-      <c r="C68" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="D68" s="67" t="s">
-        <v>272</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="38.25">
+      <c r="E68" s="5"/>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69" s="55" t="s">
         <v>313</v>
       </c>
       <c r="B69" s="31" t="s">
-        <v>13</v>
+        <v>296</v>
       </c>
       <c r="C69" s="46" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
       <c r="D69" s="67" t="s">
         <v>272</v>
@@ -9620,27 +9626,29 @@
         <v>313</v>
       </c>
       <c r="B70" s="31" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="C70" s="46" t="s">
-        <v>328</v>
-      </c>
-      <c r="D70" s="70" t="s">
-        <v>322</v>
-      </c>
-      <c r="E70" s="5"/>
-    </row>
-    <row r="71" spans="1:5">
+        <v>327</v>
+      </c>
+      <c r="D70" s="67" t="s">
+        <v>272</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="38.25">
       <c r="A71" s="55" t="s">
         <v>313</v>
       </c>
       <c r="B71" s="31" t="s">
-        <v>14</v>
-      </c>
-      <c r="C71" s="49" t="s">
-        <v>34</v>
-      </c>
-      <c r="D71" s="70" t="s">
+        <v>13</v>
+      </c>
+      <c r="C71" s="46" t="s">
+        <v>358</v>
+      </c>
+      <c r="D71" s="67" t="s">
         <v>272</v>
       </c>
       <c r="E71" s="5"/>
@@ -9650,18 +9658,48 @@
         <v>313</v>
       </c>
       <c r="B72" s="31" t="s">
+        <v>325</v>
+      </c>
+      <c r="C72" s="46" t="s">
+        <v>328</v>
+      </c>
+      <c r="D72" s="70" t="s">
+        <v>322</v>
+      </c>
+      <c r="E72" s="5"/>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="B73" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="C73" s="49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D73" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="E73" s="5"/>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="55" t="s">
+        <v>313</v>
+      </c>
+      <c r="B74" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="C72" s="49" t="s">
+      <c r="C74" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D72" s="70" t="s">
+      <c r="D74" s="70" t="s">
         <v>272</v>
       </c>
-      <c r="E72" s="9"/>
+      <c r="E74" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E60" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E62"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -9673,11 +9711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9693,8 +9731,8 @@
     <col min="9" max="9" width="25.42578125" customWidth="1"/>
     <col min="10" max="10" width="34.42578125" customWidth="1"/>
     <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="81" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.85546875" style="81" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75">
@@ -9731,10 +9769,10 @@
       <c r="K1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="L1" s="80" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="80" t="s">
         <v>44</v>
       </c>
       <c r="N1" t="s">
@@ -9755,13 +9793,13 @@
         <v>350</v>
       </c>
       <c r="F2" s="78" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G2" t="s">
         <v>349</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>359</v>
       </c>
       <c r="I2" t="s">
         <v>334</v>
@@ -9772,10 +9810,10 @@
       <c r="K2">
         <v>1</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="81">
         <v>1582103204370</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="81">
         <v>1582792430187</v>
       </c>
       <c r="N2">
@@ -9796,13 +9834,13 @@
         <v>351</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="G3" t="s">
         <v>349</v>
       </c>
       <c r="H3" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="I3" t="s">
         <v>334</v>
@@ -9813,10 +9851,10 @@
       <c r="K3">
         <v>99</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="81">
         <v>1582103204370</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="81">
         <v>1582792430187</v>
       </c>
       <c r="N3">
@@ -9824,13 +9862,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-00000A000000}"/>
+  <autoFilter ref="A1:N1"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1" xr:uid="{1C31F3F6-88E3-4255-BD4A-0A28F1083B7F}"/>
-    <hyperlink ref="G3" r:id="rId2" xr:uid="{835853F4-B136-44A5-A94F-1C12872BBA9C}"/>
+    <hyperlink ref="G2" r:id="rId1"/>
+    <hyperlink ref="G3" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9840,11 +9879,11 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <dimension ref="A1:D9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9852,10 +9891,11 @@
     <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="37" t="s">
         <v>6</v>
       </c>
@@ -9866,10 +9906,13 @@
         <v>59</v>
       </c>
       <c r="D1" s="37" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="37" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -9879,11 +9922,12 @@
       <c r="C2" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -9896,8 +9940,11 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -9907,11 +9954,12 @@
       <c r="C4" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -9921,11 +9969,12 @@
       <c r="C5" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -9935,11 +9984,12 @@
       <c r="C6" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>6</v>
       </c>
@@ -9949,11 +9999,12 @@
       <c r="C7" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:5">
       <c r="A8" s="5">
         <v>7</v>
       </c>
@@ -9963,11 +10014,12 @@
       <c r="C8" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="5"/>
+      <c r="E8" s="5">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:5">
       <c r="A9" s="5">
         <v>8</v>
       </c>
@@ -9977,13 +10029,14 @@
       <c r="C9" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D9" s="5">
+      <c r="D9" s="5"/>
+      <c r="E9" s="5">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9993,7 +10046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10105,11 +10158,11 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0E00-000000000000}">
-  <dimension ref="A1:D7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10117,10 +10170,11 @@
     <col min="1" max="1" width="3.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" customWidth="1"/>
+    <col min="5" max="5" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="18.75">
+    <row r="1" spans="1:5" ht="18.75">
       <c r="A1" s="77" t="s">
         <v>6</v>
       </c>
@@ -10130,11 +10184,14 @@
       <c r="C1" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="77" t="s">
+      <c r="D1" s="82" t="s">
+        <v>360</v>
+      </c>
+      <c r="E1" s="77" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" s="5">
         <v>1</v>
       </c>
@@ -10144,11 +10201,12 @@
       <c r="C2" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5">
         <v>99</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:5">
       <c r="A3" s="5">
         <v>2</v>
       </c>
@@ -10161,8 +10219,11 @@
       <c r="D3" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="5">
         <v>3</v>
       </c>
@@ -10172,11 +10233,12 @@
       <c r="C4" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -10186,11 +10248,12 @@
       <c r="C5" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="5"/>
+      <c r="E5" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:5">
       <c r="A6" s="5">
         <v>5</v>
       </c>
@@ -10200,11 +10263,12 @@
       <c r="C6" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="5"/>
+      <c r="E6" s="5">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:5">
       <c r="A7" s="5">
         <v>0</v>
       </c>
@@ -10214,9 +10278,16 @@
       <c r="C7" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D7" s="5">
+      <c r="D7" s="5"/>
+      <c r="E7" s="5">
         <v>995</v>
       </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="D9" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -10230,10 +10301,10 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
@@ -10379,7 +10450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10451,7 +10522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10524,7 +10595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11469,7 +11540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11525,7 +11596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11585,7 +11656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11710,7 +11781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11806,7 +11877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/server/db/excel/sqlite-inovation-manager-ver-dinh.xlsx
+++ b/server/db/excel/sqlite-inovation-manager-ver-dinh.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\dinh-inovation\server\db\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326F623-903F-46CA-AC24-A05775A4EA90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="500"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -28,12 +34,6 @@
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -1049,9 +1049,6 @@
     <t>assets/imgs/background-idea.jpg</t>
   </si>
   <si>
-    <t>assets/imgs/avatar.jpg</t>
-  </si>
-  <si>
     <t>archive</t>
   </si>
   <si>
@@ -1131,12 +1128,15 @@
   </si>
   <si>
     <t>Trường này có mặc định không?</t>
+  </si>
+  <si>
+    <t>assets/imgs/avatar-dinh.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
@@ -2443,10 +2443,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
@@ -4247,10 +4247,10 @@
         <v>262</v>
       </c>
       <c r="B51" s="33" t="s">
+        <v>359</v>
+      </c>
+      <c r="C51" s="83" t="s">
         <v>360</v>
-      </c>
-      <c r="C51" s="83" t="s">
-        <v>361</v>
       </c>
       <c r="D51" s="67" t="s">
         <v>272</v>
@@ -4273,13 +4273,13 @@
     </row>
     <row r="53" spans="1:1023">
       <c r="A53" s="79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>272</v>
@@ -5308,13 +5308,13 @@
     </row>
     <row r="54" spans="1:1023">
       <c r="A54" s="79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D54" s="67" t="s">
         <v>271</v>
@@ -6341,13 +6341,13 @@
     </row>
     <row r="55" spans="1:1023">
       <c r="A55" s="79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D55" s="67" t="s">
         <v>271</v>
@@ -7374,7 +7374,7 @@
     </row>
     <row r="56" spans="1:1023">
       <c r="A56" s="79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>5</v>
@@ -8407,7 +8407,7 @@
     </row>
     <row r="57" spans="1:1023">
       <c r="A57" s="79" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>11</v>
@@ -9490,10 +9490,10 @@
         <v>265</v>
       </c>
       <c r="B61" s="77" t="s">
+        <v>359</v>
+      </c>
+      <c r="C61" s="83" t="s">
         <v>360</v>
-      </c>
-      <c r="C61" s="83" t="s">
-        <v>361</v>
       </c>
       <c r="D61" s="67" t="s">
         <v>272</v>
@@ -9635,7 +9635,7 @@
         <v>272</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="38.25">
@@ -9646,7 +9646,7 @@
         <v>13</v>
       </c>
       <c r="C71" s="46" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D71" s="67" t="s">
         <v>272</v>
@@ -9699,7 +9699,7 @@
       <c r="E74" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E62"/>
+  <autoFilter ref="A1:E62" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <extLst>
@@ -9711,11 +9711,11 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -9784,25 +9784,25 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D2" t="s">
+        <v>347</v>
+      </c>
+      <c r="E2" t="s">
+        <v>349</v>
+      </c>
+      <c r="F2" s="78" t="s">
+        <v>351</v>
+      </c>
+      <c r="G2" t="s">
         <v>348</v>
       </c>
-      <c r="E2" t="s">
-        <v>350</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>352</v>
-      </c>
-      <c r="G2" t="s">
-        <v>349</v>
-      </c>
       <c r="H2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I2" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="J2" t="s">
         <v>333</v>
@@ -9825,25 +9825,25 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D3" t="s">
+        <v>347</v>
+      </c>
+      <c r="E3" t="s">
+        <v>350</v>
+      </c>
+      <c r="F3" s="78" t="s">
         <v>351</v>
       </c>
-      <c r="D3" t="s">
+      <c r="G3" t="s">
         <v>348</v>
       </c>
-      <c r="E3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F3" s="78" t="s">
-        <v>352</v>
-      </c>
-      <c r="G3" t="s">
-        <v>349</v>
-      </c>
       <c r="H3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I3" t="s">
-        <v>334</v>
+        <v>361</v>
       </c>
       <c r="J3" t="s">
         <v>333</v>
@@ -9862,11 +9862,11 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1"/>
+  <autoFilter ref="A1:N1" xr:uid="{00000000-0009-0000-0000-000009000000}"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G2" r:id="rId1"/>
-    <hyperlink ref="G3" r:id="rId2"/>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{00000000-0004-0000-0900-000000000000}"/>
+    <hyperlink ref="G3" r:id="rId2" xr:uid="{00000000-0004-0000-0900-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -9879,7 +9879,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9906,7 +9906,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>5</v>
@@ -10046,7 +10046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10086,7 +10086,7 @@
         <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -10103,7 +10103,7 @@
         <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -10120,7 +10120,7 @@
         <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -10137,7 +10137,7 @@
         <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -10158,7 +10158,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10185,7 +10185,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>5</v>
@@ -10199,7 +10199,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -10246,7 +10246,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -10261,7 +10261,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -10276,7 +10276,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -10301,7 +10301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10343,7 +10343,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10363,7 +10363,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10383,7 +10383,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10403,7 +10403,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10423,7 +10423,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10450,7 +10450,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10522,7 +10522,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -10595,7 +10595,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11540,7 +11540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11596,7 +11596,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11656,7 +11656,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11781,7 +11781,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11877,7 +11877,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/server/db/excel/sqlite-inovation-manager-ver-dinh.xlsx
+++ b/server/db/excel/sqlite-inovation-manager-ver-dinh.xlsx
@@ -8,29 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\dinh-inovation\server\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7326F623-903F-46CA-AC24-A05775A4EA90}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9727759-77D8-4620-97B4-1C7716D71ACD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1725" yWindow="1725" windowWidth="19590" windowHeight="10860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
-    <sheet name="parameters" sheetId="13" state="hidden" r:id="rId2"/>
-    <sheet name="admin_menu" sheetId="12" state="hidden" r:id="rId3"/>
-    <sheet name="admin_functions" sheetId="9" state="hidden" r:id="rId4"/>
-    <sheet name="admin_group" sheetId="14" state="hidden" r:id="rId5"/>
-    <sheet name="admin_roles" sheetId="15" state="hidden" r:id="rId6"/>
-    <sheet name="organizations" sheetId="11" state="hidden" r:id="rId7"/>
-    <sheet name="job_roles" sheetId="16" state="hidden" r:id="rId8"/>
-    <sheet name="staffs" sheetId="17" state="hidden" r:id="rId9"/>
-    <sheet name="users" sheetId="10" r:id="rId10"/>
-    <sheet name="ideas_categories" sheetId="19" r:id="rId11"/>
-    <sheet name="ideas_status_type" sheetId="21" r:id="rId12"/>
-    <sheet name="ideas_statuses" sheetId="20" r:id="rId13"/>
-    <sheet name="ideas_questions" sheetId="22" r:id="rId14"/>
+    <sheet name="ideas" sheetId="23" r:id="rId2"/>
+    <sheet name="parameters" sheetId="13" state="hidden" r:id="rId3"/>
+    <sheet name="admin_menu" sheetId="12" state="hidden" r:id="rId4"/>
+    <sheet name="admin_functions" sheetId="9" state="hidden" r:id="rId5"/>
+    <sheet name="admin_group" sheetId="14" state="hidden" r:id="rId6"/>
+    <sheet name="admin_roles" sheetId="15" state="hidden" r:id="rId7"/>
+    <sheet name="organizations" sheetId="11" state="hidden" r:id="rId8"/>
+    <sheet name="job_roles" sheetId="16" state="hidden" r:id="rId9"/>
+    <sheet name="staffs" sheetId="17" state="hidden" r:id="rId10"/>
+    <sheet name="users" sheetId="10" r:id="rId11"/>
+    <sheet name="ideas_categories" sheetId="19" r:id="rId12"/>
+    <sheet name="ideas_status_type" sheetId="21" r:id="rId13"/>
+    <sheet name="ideas_statuses" sheetId="20" r:id="rId14"/>
+    <sheet name="ideas_questions" sheetId="22" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">tables!$A$1:$E$52</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">users!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">users!$A$1:$N$1</definedName>
   </definedNames>
   <calcPr calcId="145621" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="377">
   <si>
     <t>table_name</t>
   </si>
@@ -1025,12 +1026,6 @@
     <t>point</t>
   </si>
   <si>
-    <t>ý tưởng nào</t>
-  </si>
-  <si>
-    <t>câu hỏi nào</t>
-  </si>
-  <si>
     <t>cho mấy điểm</t>
   </si>
   <si>
@@ -1118,9 +1113,6 @@
     <t xml:space="preserve">PRIMARY KEY </t>
   </si>
   <si>
-    <t>user nào, (nhớ tạo PRIMARY KEY sau khi tạo đc csdl)</t>
-  </si>
-  <si>
     <t>391 Nguyễn Văn Linh, Đà nẵng</t>
   </si>
   <si>
@@ -1131,6 +1123,93 @@
   </si>
   <si>
     <t>assets/imgs/avatar-dinh.jpg</t>
+  </si>
+  <si>
+    <t>dinh.nguyenvan.ctv</t>
+  </si>
+  <si>
+    <t>nvdinh185</t>
+  </si>
+  <si>
+    <t>assets/imgs/avatar.jpg</t>
+  </si>
+  <si>
+    <t>Ý tưởng này là gì vậy?</t>
+  </si>
+  <si>
+    <t>Mô tả ý tưởng này là gì vậy?</t>
+  </si>
+  <si>
+    <t>Ý tưởng thứ hai là gì vậy?</t>
+  </si>
+  <si>
+    <t>Mô tả ý tưởng thứ hai là gì vậy?</t>
+  </si>
+  <si>
+    <t>Mô tả Ý tưởng của dinh1</t>
+  </si>
+  <si>
+    <t>Ý tưởng thứ hai của dinh1</t>
+  </si>
+  <si>
+    <t>Mô tả Ý tưởng thứ hai của dinh1</t>
+  </si>
+  <si>
+    <t>Ý tưởng đầu tiên của dinh1</t>
+  </si>
+  <si>
+    <t>Ý tưởng đầu tiên của dinh99</t>
+  </si>
+  <si>
+    <t>Mô tả Ý tưởng đầu tiên của dinh99</t>
+  </si>
+  <si>
+    <t>Ý tưởng thứ hai của dinh99</t>
+  </si>
+  <si>
+    <t>Mô tả Ý tưởng thứ hai của dinh99</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">câu hỏi nào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(nhớ tạo PRIMARY KEY sau khi tạo đc csdl)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">user nào, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(nhớ tạo PRIMARY KEY sau khi tạo đc csdl)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">ý tưởng nào </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(tạo PRIMARY KEY khi tạo csdl)</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1140,7 +1219,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0;[Red]0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1302,6 +1381,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="25">
@@ -1675,7 +1760,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1854,6 +1939,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="184">
     <cellStyle name="Explanatory Text" xfId="1" builtinId="53" customBuiltin="1"/>
@@ -2446,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI74"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C69" sqref="C69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -3911,10 +3997,10 @@
         <v>18</v>
       </c>
       <c r="B29" s="73" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C29" s="49" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D29" s="74" t="s">
         <v>322</v>
@@ -4247,10 +4333,10 @@
         <v>262</v>
       </c>
       <c r="B51" s="33" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C51" s="83" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D51" s="67" t="s">
         <v>272</v>
@@ -4273,13 +4359,13 @@
     </row>
     <row r="53" spans="1:1023">
       <c r="A53" s="79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B53" s="31" t="s">
         <v>6</v>
       </c>
       <c r="C53" s="46" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D53" s="67" t="s">
         <v>272</v>
@@ -5308,13 +5394,13 @@
     </row>
     <row r="54" spans="1:1023">
       <c r="A54" s="79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B54" s="31" t="s">
         <v>25</v>
       </c>
       <c r="C54" s="46" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D54" s="67" t="s">
         <v>271</v>
@@ -6341,13 +6427,13 @@
     </row>
     <row r="55" spans="1:1023">
       <c r="A55" s="79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B55" s="31" t="s">
         <v>2</v>
       </c>
       <c r="C55" s="46" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D55" s="67" t="s">
         <v>271</v>
@@ -7374,7 +7460,7 @@
     </row>
     <row r="56" spans="1:1023">
       <c r="A56" s="79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B56" s="31" t="s">
         <v>5</v>
@@ -8407,7 +8493,7 @@
     </row>
     <row r="57" spans="1:1023">
       <c r="A57" s="79" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B57" s="31" t="s">
         <v>11</v>
@@ -9490,10 +9576,10 @@
         <v>265</v>
       </c>
       <c r="B61" s="77" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C61" s="83" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D61" s="67" t="s">
         <v>272</v>
@@ -9536,7 +9622,7 @@
         <v>314</v>
       </c>
       <c r="B64" s="73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C64" s="49" t="s">
         <v>316</v>
@@ -9599,7 +9685,7 @@
         <v>5</v>
       </c>
       <c r="C68" s="49" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D68" s="70" t="s">
         <v>272</v>
@@ -9613,30 +9699,30 @@
       <c r="B69" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="C69" s="46" t="s">
-        <v>326</v>
+      <c r="C69" s="83" t="s">
+        <v>376</v>
       </c>
       <c r="D69" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="E69" s="5"/>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="E69" s="5" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="38.25">
       <c r="A70" s="55" t="s">
         <v>313</v>
       </c>
       <c r="B70" s="31" t="s">
         <v>317</v>
       </c>
-      <c r="C70" s="46" t="s">
-        <v>327</v>
+      <c r="C70" s="83" t="s">
+        <v>374</v>
       </c>
       <c r="D70" s="67" t="s">
         <v>272</v>
       </c>
-      <c r="E70" s="5" t="s">
-        <v>356</v>
-      </c>
+      <c r="E70" s="5"/>
     </row>
     <row r="71" spans="1:5" ht="38.25">
       <c r="A71" s="55" t="s">
@@ -9645,8 +9731,8 @@
       <c r="B71" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C71" s="46" t="s">
-        <v>357</v>
+      <c r="C71" s="83" t="s">
+        <v>375</v>
       </c>
       <c r="D71" s="67" t="s">
         <v>272</v>
@@ -9661,7 +9747,7 @@
         <v>325</v>
       </c>
       <c r="C72" s="46" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D72" s="70" t="s">
         <v>322</v>
@@ -9711,26 +9797,114 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:T1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" ht="18.75">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="N1" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="P1" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q1" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="33.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="38.28515625" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="25.42578125" customWidth="1"/>
     <col min="10" max="10" width="34.42578125" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
+    <col min="11" max="11" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="81" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.85546875" style="81" bestFit="1" customWidth="1"/>
   </cols>
@@ -9784,28 +9958,28 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>347</v>
+      </c>
+      <c r="D2" t="s">
+        <v>345</v>
+      </c>
+      <c r="E2" t="s">
+        <v>347</v>
+      </c>
+      <c r="F2" s="78" t="s">
         <v>349</v>
       </c>
-      <c r="D2" t="s">
-        <v>347</v>
-      </c>
-      <c r="E2" t="s">
-        <v>349</v>
-      </c>
-      <c r="F2" s="78" t="s">
-        <v>351</v>
-      </c>
       <c r="G2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H2" t="s">
+        <v>355</v>
+      </c>
+      <c r="I2" t="s">
         <v>358</v>
       </c>
-      <c r="I2" t="s">
-        <v>361</v>
-      </c>
       <c r="J2" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -9825,28 +9999,28 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="D3" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E3" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="F3" s="78" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="G3" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="H3" t="s">
+        <v>355</v>
+      </c>
+      <c r="I3" t="s">
         <v>358</v>
       </c>
-      <c r="I3" t="s">
-        <v>361</v>
-      </c>
       <c r="J3" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K3">
         <v>99</v>
@@ -9858,6 +10032,47 @@
         <v>1582792430187</v>
       </c>
       <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>359</v>
+      </c>
+      <c r="D4" t="s">
+        <v>345</v>
+      </c>
+      <c r="E4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F4" s="78" t="s">
+        <v>349</v>
+      </c>
+      <c r="G4" t="s">
+        <v>346</v>
+      </c>
+      <c r="H4" t="s">
+        <v>355</v>
+      </c>
+      <c r="I4" t="s">
+        <v>361</v>
+      </c>
+      <c r="J4" t="s">
+        <v>331</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" s="81">
+        <v>1582103204370</v>
+      </c>
+      <c r="M4" s="81">
+        <v>1582792430187</v>
+      </c>
+      <c r="N4">
         <v>1</v>
       </c>
     </row>
@@ -9878,7 +10093,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
@@ -9906,7 +10121,7 @@
         <v>59</v>
       </c>
       <c r="D1" s="37" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E1" s="37" t="s">
         <v>5</v>
@@ -10045,7 +10260,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -10086,7 +10301,7 @@
         <v>310</v>
       </c>
       <c r="C2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="D2">
         <v>4</v>
@@ -10103,7 +10318,7 @@
         <v>282</v>
       </c>
       <c r="C3" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D3">
         <v>3</v>
@@ -10120,7 +10335,7 @@
         <v>312</v>
       </c>
       <c r="C4" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -10137,7 +10352,7 @@
         <v>311</v>
       </c>
       <c r="C5" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -10157,12 +10372,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10185,7 +10400,7 @@
         <v>25</v>
       </c>
       <c r="D1" s="82" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="E1" s="77" t="s">
         <v>5</v>
@@ -10199,7 +10414,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5">
@@ -10246,7 +10461,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5">
@@ -10261,7 +10476,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5">
@@ -10276,7 +10491,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
@@ -10300,7 +10515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -10323,7 +10538,7 @@
         <v>6</v>
       </c>
       <c r="B1" s="73" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C1" s="73" t="s">
         <v>318</v>
@@ -10343,7 +10558,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C2">
         <v>0</v>
@@ -10363,7 +10578,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -10383,7 +10598,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -10403,7 +10618,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -10423,7 +10638,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -10450,6 +10665,283 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02B7425A-AFAB-46F3-BDD9-8E7F16AA78B9}">
+  <dimension ref="A1:O7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L6" sqref="L6:O7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="81" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="18.75">
+      <c r="A1" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="31" t="s">
+        <v>248</v>
+      </c>
+      <c r="E1" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="33" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="84" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="33" t="s">
+        <v>285</v>
+      </c>
+      <c r="I1" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="L1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" s="31" t="s">
+        <v>260</v>
+      </c>
+      <c r="N1" s="73" t="s">
+        <v>328</v>
+      </c>
+      <c r="O1" s="76" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>362</v>
+      </c>
+      <c r="C2" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>3</v>
+      </c>
+      <c r="G2" s="81">
+        <v>1590045283916</v>
+      </c>
+      <c r="H2" t="s">
+        <v>359</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="81">
+        <v>1590045323073</v>
+      </c>
+      <c r="H3" t="s">
+        <v>359</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>369</v>
+      </c>
+      <c r="C4" t="s">
+        <v>366</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" s="81">
+        <v>1590045603862</v>
+      </c>
+      <c r="H4" t="s">
+        <v>347</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E5">
+        <v>7</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="81">
+        <v>1590045634319</v>
+      </c>
+      <c r="H5" t="s">
+        <v>347</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>370</v>
+      </c>
+      <c r="C6" t="s">
+        <v>371</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" s="81">
+        <v>1590047016939</v>
+      </c>
+      <c r="H6" t="s">
+        <v>348</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C7" t="s">
+        <v>373</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="81">
+        <v>1590047072983</v>
+      </c>
+      <c r="H7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L1"/>
   <sheetViews>
@@ -10521,7 +11013,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Q1"/>
   <sheetViews>
@@ -10594,7 +11086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I53"/>
   <sheetViews>
@@ -11539,7 +12031,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H1"/>
   <sheetViews>
@@ -11595,7 +12087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I1"/>
   <sheetViews>
@@ -11655,7 +12147,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:R3"/>
   <sheetViews>
@@ -11780,7 +12272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:R1"/>
   <sheetViews>
@@ -11874,92 +12366,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:T1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:20" ht="18.75">
-      <c r="A1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="P1" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="Q1" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="R1" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/server/db/excel/sqlite-inovation-manager-ver-dinh.xlsx
+++ b/server/db/excel/sqlite-inovation-manager-ver-dinh.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DINHNV\MyData\LAPTRINH\NODE4\dinh-inovation\server\db\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9727759-77D8-4620-97B4-1C7716D71ACD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF918709-1420-4A0C-8D56-47068757686C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="1725" windowWidth="19590" windowHeight="10860" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" tabRatio="500" firstSheet="1" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tables" sheetId="1" r:id="rId1"/>
@@ -1146,9 +1146,6 @@
     <t>Mô tả ý tưởng thứ hai là gì vậy?</t>
   </si>
   <si>
-    <t>Mô tả Ý tưởng của dinh1</t>
-  </si>
-  <si>
     <t>Ý tưởng thứ hai của dinh1</t>
   </si>
   <si>
@@ -1210,6 +1207,9 @@
       </rPr>
       <t>(tạo PRIMARY KEY khi tạo csdl)</t>
     </r>
+  </si>
+  <si>
+    <t>Mô tả Ý tưởng đầu tiên của dinh1</t>
   </si>
 </sst>
 </file>
@@ -2532,8 +2532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AMI74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView topLeftCell="A58" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="23.25"/>
@@ -9700,7 +9700,7 @@
         <v>296</v>
       </c>
       <c r="C69" s="83" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D69" s="67" t="s">
         <v>272</v>
@@ -9717,7 +9717,7 @@
         <v>317</v>
       </c>
       <c r="C70" s="83" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D70" s="67" t="s">
         <v>272</v>
@@ -9732,7 +9732,7 @@
         <v>13</v>
       </c>
       <c r="C71" s="83" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D71" s="67" t="s">
         <v>272</v>
@@ -10098,7 +10098,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10377,7 +10377,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10495,7 +10495,7 @@
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5">
-        <v>995</v>
+        <v>999</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -10519,8 +10519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
@@ -10669,13 +10669,16 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L6" sqref="L6:O7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.7109375" style="81" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="18.75">
@@ -10800,10 +10803,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C4" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -10835,10 +10838,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" t="s">
         <v>367</v>
-      </c>
-      <c r="C5" t="s">
-        <v>368</v>
       </c>
       <c r="E5">
         <v>7</v>
@@ -10870,13 +10873,13 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>369</v>
+      </c>
+      <c r="C6" t="s">
         <v>370</v>
       </c>
-      <c r="C6" t="s">
-        <v>371</v>
-      </c>
       <c r="E6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -10905,10 +10908,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>371</v>
+      </c>
+      <c r="C7" t="s">
         <v>372</v>
-      </c>
-      <c r="C7" t="s">
-        <v>373</v>
       </c>
       <c r="E7">
         <v>2</v>
